--- a/results/case2/data_case2_apos_recipe.xlsx
+++ b/results/case2/data_case2_apos_recipe.xlsx
@@ -85,130 +85,130 @@
     <t>MUD</t>
   </si>
   <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00021815194143038952], ["'SUD manufacturing' (unit, GLO, None)", 0.01449345170589394], ["'SUD raw materials' (unit, GLO, None)", 0.002301881251574761], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000426182412722209], ["'mixed heating grid' (megajoule, DK, None)", -0.00029592199318060844], ["'transport' (ton kilometer, GLO, None)", 1.2469164082826707e-05], ["'eol SUD' (kilogram, GLO, None)", 5.328004184559836e-05], ["'surgery use' (unit, DK, None)", 5.367420424950549e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.889632163782068e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006838744668207432], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.646112968273701e-05], ["'MUD raw materials' (unit, GLO, None)", 5.044343527077364e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0003752089655609819], ["'H200 SU' (unit, GLO, None)", 0.00012943145405133803], ["'autoclave' (unit, DK, None)", 0.00016508799619386802], ["'transport' (ton kilometer, GLO, None)", 5.10040946051062e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.2245224119169001e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.7635389021293833e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6326346711935618e-06], ["'scalpel' (unit, GLO, None)", 6.249490286777009e-05], ["'surgery use' (unit, DK, None)", 5.367420424950549e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.07332786994616176], ["'SUD manufacturing' (unit, GLO, None)", 0.7599394500035327], ["'SUD raw materials' (unit, GLO, None)", 0.1652473924931615], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.17583137481328953], ["'mixed heating grid' (megajoule, DK, None)", -0.054447774006303275], ["'transport' (ton kilometer, GLO, None)", 0.009047771285838651], ["'eol SUD' (kilogram, GLO, None)", 0.4215931858003368], ["'surgery use' (unit, DK, None)", 0.01623028490170327], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568839246861072]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1877127791743969], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.016432760305473016], ["'MUD raw materials' (unit, GLO, None)", 0.0009051563089579962], ["'mechanical disinfection' (unit, DK, None)", 0.1121101105101208], ["'H200 SU' (unit, GLO, None)", 0.10030260773764102], ["'autoclave' (unit, DK, None)", 0.04769806851629699], ["'transport' (ton kilometer, GLO, None)", 0.0037009167540256144], ["'mixed heating grid' (megajoule, DK, None)", -0.002253043744167164], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00727588610983453], ["'eol MUD' (kilogram, GLO, None)", 0.01443658611348089], ["'scalpel' (unit, GLO, None)", 0.01285170621261845], ["'surgery use' (unit, DK, None)", 0.01623028490170327]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0021190776252786453], ["'SUD manufacturing' (unit, GLO, None)", 1.345390637530452], ["'SUD raw materials' (unit, GLO, None)", 0.01684144159178661], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010902532387062867], ["'mixed heating grid' (megajoule, DK, None)", -0.003162673586009603], ["'transport' (ton kilometer, GLO, None)", 0.00022606768299272942], ["'eol SUD' (kilogram, GLO, None)", 0.03563855015267832], ["'surgery use' (unit, DK, None)", 0.003484677149589], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687907476332518e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04348093039905101], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004302868174939333], ["'MUD raw materials' (unit, GLO, None)", 0.000865023131354999], ["'mechanical disinfection' (unit, DK, None)", 0.023493123382302493], ["'H200 SU' (unit, GLO, None)", 0.0037709428889392575], ["'autoclave' (unit, DK, None)", 0.009872559330501218], ["'transport' (ton kilometer, GLO, None)", 9.247113450370475e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001308711341803753], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00045114578692958217], ["'eol MUD' (kilogram, GLO, None)", 0.0007276189352314492], ["'scalpel' (unit, GLO, None)", 0.002792339710185499], ["'surgery use' (unit, DK, None)", 0.003484677149589]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0028220902426677923], ["'SUD manufacturing' (unit, GLO, None)", 1.727145795910309], ["'SUD raw materials' (unit, GLO, None)", 0.02314080529561657], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01421667121590312], ["'mixed heating grid' (megajoule, DK, None)", -0.0042575891168662], ["'transport' (ton kilometer, GLO, None)", 0.00040164541879584854], ["'eol SUD' (kilogram, GLO, None)", 0.048965684124651875], ["'surgery use' (unit, DK, None)", 0.004390462149168234], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867433862162024e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05493462228344335], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005761680523558049], ["'MUD raw materials' (unit, GLO, None)", 0.001363932244702852], ["'mechanical disinfection' (unit, DK, None)", 0.029630371915618393], ["'H200 SU' (unit, GLO, None)", 0.005312861437462128], ["'autoclave' (unit, DK, None)", 0.01246231992994126], ["'transport' (ton kilometer, GLO, None)", 0.00016428976956189806], ["'mixed heating grid' (megajoule, DK, None)", -0.0001761786353998437], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005882845467011378], ["'eol MUD' (kilogram, GLO, None)", 0.001037055638702436], ["'scalpel' (unit, GLO, None)", 0.003720088332990505], ["'surgery use' (unit, DK, None)", 0.004390462149168234]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.19952397919671855], ["'SUD manufacturing' (unit, GLO, None)", 102.7754556715733], ["'SUD raw materials' (unit, GLO, None)", 4.338663284220511], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4900751265328471], ["'mixed heating grid' (megajoule, DK, None)", -0.4246544026681287], ["'transport' (ton kilometer, GLO, None)", 0.17452026800367856], ["'eol SUD' (kilogram, GLO, None)", 0.9620869911718408], ["'surgery use' (unit, DK, None)", 0.1764627295269747], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.002228912426076735]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.391785610777499], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.03805067520644959], ["'MUD raw materials' (unit, GLO, None)", 0.01411658378970856], ["'mechanical disinfection' (unit, DK, None)", 1.1956288485687032], ["'H200 SU' (unit, GLO, None)", 0.23816359063618847], ["'autoclave' (unit, DK, None)", 0.506876224233929], ["'transport' (ton kilometer, GLO, None)", 0.07138608651423115], ["'mixed heating grid' (megajoule, DK, None)", -0.01757215906115297], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.02027926363939367], ["'eol MUD' (kilogram, GLO, None)", 0.034499710871781435], ["'scalpel' (unit, GLO, None)", 0.4425244279598313], ["'surgery use' (unit, DK, None)", 0.1764627295269747]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.04027070042669962], ["'SUD manufacturing' (unit, GLO, None)", 0.2078212058349955], ["'SUD raw materials' (unit, GLO, None)", 0.06836056390686601], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04629574773642991], ["'mixed heating grid' (megajoule, DK, None)", -0.015907110706683845], ["'transport' (ton kilometer, GLO, None)", 0.0028514052024111785], ["'eol SUD' (kilogram, GLO, None)", 0.0030884126465350326], ["'surgery use' (unit, DK, None)", 0.004169948934157744], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301598925428905]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04829332448294311], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009733702558177657], ["'MUD raw materials' (unit, GLO, None)", 0.0002325060894508973], ["'mechanical disinfection' (unit, DK, None)", 0.028876569173547105], ["'H200 SU' (unit, GLO, None)", 0.03405038172897752], ["'autoclave' (unit, DK, None)", 0.012213540766465258], ["'transport' (ton kilometer, GLO, None)", 0.0011663439484413504], ["'mixed heating grid' (megajoule, DK, None)", -0.0006582347381422703], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00191571378121554], ["'eol MUD' (kilogram, GLO, None)", 0.00010128412056811891], ["'scalpel' (unit, GLO, None)", 0.003063037529365741], ["'surgery use' (unit, DK, None)", 0.004169948934157744]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0484370503942646e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001924726265283953], ["'SUD raw materials' (unit, GLO, None)", 4.928300453400991e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014612527916688667], ["'mixed heating grid' (megajoule, DK, None)", -2.2300720225137162e-05], ["'transport' (ton kilometer, GLO, None)", 6.466690347690473e-07], ["'eol SUD' (kilogram, GLO, None)", 7.295930426906038e-06], ["'surgery use' (unit, DK, None)", 1.420379347262742e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300989373285446e-07]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001877230838744959], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.105075194705423e-06], ["'MUD raw materials' (unit, GLO, None)", 1.346265868406846e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00010690829466873588], ["'H200 SU' (unit, GLO, None)", 5.488156624367868e-06], ["'autoclave' (unit, DK, None)", 4.824079903511854e-05], ["'transport' (ton kilometer, GLO, None)", 2.645146732248e-07], ["'mixed heating grid' (megajoule, DK, None)", -9.228016959490531e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.046650605530535e-06], ["'eol MUD' (kilogram, GLO, None)", 2.1396645994945116e-07], ["'scalpel' (unit, GLO, None)", 6.495437424026572e-06], ["'surgery use' (unit, DK, None)", 1.420379347262742e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.820024802942249e-06], ["'SUD manufacturing' (unit, GLO, None)", 6.042957304204081e-05], ["'SUD raw materials' (unit, GLO, None)", 9.421561054890103e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2654931856773234e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.9920427395267016e-05], ["'transport' (ton kilometer, GLO, None)", 2.5460124168422725e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1578754418984613e-06], ["'surgery use' (unit, DK, None)", 1.423529280588476e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762573320509e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.921492323622215e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.868571598849798e-07], ["'MUD raw materials' (unit, GLO, None)", 5.91608452088953e-08], ["'mechanical disinfection' (unit, DK, None)", 4.770289316735944e-05], ["'H200 SU' (unit, GLO, None)", -2.6959785242530826e-06], ["'autoclave' (unit, DK, None)", 3.302809747707872e-05], ["'transport' (ton kilometer, GLO, None)", 1.041425530306762e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.2381044587407753e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.23659915731033e-07], ["'eol MUD' (kilogram, GLO, None)", 5.731670313235649e-08], ["'scalpel' (unit, GLO, None)", 7.484963222329542e-07], ["'surgery use' (unit, DK, None)", 1.423529280588476e-06]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.003189687787316812], ["'SUD manufacturing' (unit, GLO, None)", 0.1684748403603112], ["'SUD raw materials' (unit, GLO, None)", 0.02807747992745142], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014567015894615227], ["'mixed heating grid' (megajoule, DK, None)", -0.003049851205469272], ["'transport' (ton kilometer, GLO, None)", 0.00046867191735035615], ["'eol SUD' (kilogram, GLO, None)", 0.005098283774078206], ["'surgery use' (unit, DK, None)", 0.001498456928941167], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.779008845486375e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01838322658189697], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006792142487305325], ["'MUD raw materials' (unit, GLO, None)", 0.0003692023518769145], ["'mechanical disinfection' (unit, DK, None)", 0.010598429846493222], ["'H200 SU' (unit, GLO, None)", 0.0017222913646190278], ["'autoclave' (unit, DK, None)", 0.004600309688892087], ["'transport' (ton kilometer, GLO, None)", 0.00019170640992860445], ["'mixed heating grid' (megajoule, DK, None)", -0.00012620255473305], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006027817772676544], ["'eol MUD' (kilogram, GLO, None)", 0.00014187219678798017], ["'scalpel' (unit, GLO, None)", 0.01600976023331309], ["'surgery use' (unit, DK, None)", 0.001498456928941167]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05595966264231522], ["'SUD manufacturing' (unit, GLO, None)", 19.78402519897064], ["'SUD raw materials' (unit, GLO, None)", 0.3179891360626064], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.25998014240708534], ["'mixed heating grid' (megajoule, DK, None)", -0.11896070032893286], ["'transport' (ton kilometer, GLO, None)", 0.007121715866701352], ["'eol SUD' (kilogram, GLO, None)", 0.5721151086031498], ["'surgery use' (unit, DK, None)", 0.04545673748860148], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017273671497718991]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.617409206484011], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0101733091436381], ["'MUD raw materials' (unit, GLO, None)", 0.01622152654449242], ["'mechanical disinfection' (unit, DK, None)", 0.32654088057985065], ["'H200 SU' (unit, GLO, None)", 0.045130730399005975], ["'autoclave' (unit, DK, None)", 0.14387348304814523], ["'transport' (ton kilometer, GLO, None)", 0.0029130795569222907], ["'mixed heating grid' (megajoule, DK, None)", -0.004922582540230541], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.010757954369526701], ["'eol MUD' (kilogram, GLO, None)", 0.009933703808963548], ["'scalpel' (unit, GLO, None)", 0.04190537951620722], ["'surgery use' (unit, DK, None)", 0.04545673748860148]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0053117565715928555], ["'SUD manufacturing' (unit, GLO, None)", 0.1003765748615008], ["'SUD raw materials' (unit, GLO, None)", 0.009525746373171535], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05325822335540196], ["'mixed heating grid' (megajoule, DK, None)", -0.002230216558753602], ["'transport' (ton kilometer, GLO, None)", 0.00014709200785456225], ["'eol SUD' (kilogram, GLO, None)", 0.00041893231104105555], ["'surgery use' (unit, DK, None)", 0.004535809516283955], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.39375673538385e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05135719812310295], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0010380120432710613], ["'MUD raw materials' (unit, GLO, None)", 5.461090725600252e-05], ["'mechanical disinfection' (unit, DK, None)", 0.03115435060117078], ["'H200 SU' (unit, GLO, None)", 0.0003526988103082805], ["'autoclave' (unit, DK, None)", 0.012897365920600447], ["'transport' (ton kilometer, GLO, None)", 6.0166781304945166e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.228615049085603e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00220382038164412], ["'eol MUD' (kilogram, GLO, None)", 1.367157506709166e-05], ["'scalpel' (unit, GLO, None)", 0.0008099262796407999], ["'surgery use' (unit, DK, None)", 0.004535809516283955]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014954204132052363], ["'SUD manufacturing' (unit, GLO, None)", 0.05611561609202762], ["'SUD raw materials' (unit, GLO, None)", 0.003024483458977392], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03876524148545477], ["'mixed heating grid' (megajoule, DK, None)", -0.059811501115605174], ["'transport' (ton kilometer, GLO, None)", 0.0003449109798527071], ["'eol SUD' (kilogram, GLO, None)", 0.0001804135440654717], ["'surgery use' (unit, DK, None)", 0.003318171162960512], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5569939177099296e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03664493819986465], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00047748497744831106], ["'MUD raw materials' (unit, GLO, None)", 4.90486203286378e-05], ["'mechanical disinfection' (unit, DK, None)", 0.022147095147254974], ["'H200 SU' (unit, GLO, None)", -0.00908294564921342], ["'autoclave' (unit, DK, None)", 0.009222094410922584], ["'transport' (ton kilometer, GLO, None)", 0.00014108301189953823], ["'mixed heating grid' (megajoule, DK, None)", -0.0024749942651863233], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0016041021255046451], ["'eol MUD' (kilogram, GLO, None)", 4.808303505954188e-06], ["'scalpel' (unit, GLO, None)", 0.0004507693032491023], ["'surgery use' (unit, DK, None)", 0.003318171162960512]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005791794998090089], ["'SUD manufacturing' (unit, GLO, None)", 0.06718160031041252], ["'SUD raw materials' (unit, GLO, None)", 0.008941788081229496], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0011929833474165234], ["'mixed heating grid' (megajoule, DK, None)", -0.00042846716536414157], ["'transport' (ton kilometer, GLO, None)", 0.00010199918379811616], ["'eol SUD' (kilogram, GLO, None)", 0.00043148472797096415], ["'surgery use' (unit, DK, None)", 0.0001855137839138461], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338637180298667e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002847962434474949], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00010777122887592029], ["'MUD raw materials' (unit, GLO, None)", 0.000107839091339939], ["'mechanical disinfection' (unit, DK, None)", 0.0014413924152082262], ["'H200 SU' (unit, GLO, None)", 0.0005335415142040485], ["'autoclave' (unit, DK, None)", 0.0007567583416717263], ["'transport' (ton kilometer, GLO, None)", 4.172193088105851e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.7729930821285002e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.936554113820043e-05], ["'eol MUD' (kilogram, GLO, None)", 1.4054603644804347e-05], ["'scalpel' (unit, GLO, None)", 0.001110122620804753], ["'surgery use' (unit, DK, None)", 0.0001855137839138461]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.270474468762744e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.869017634813851e-07], ["'SUD raw materials' (unit, GLO, None)", 8.265723535363978e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0062938855252718e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.4849728600025254e-07], ["'transport' (ton kilometer, GLO, None)", 4.130999018467332e-09], ["'eol SUD' (kilogram, GLO, None)", 8.589611577441692e-08], ["'surgery use' (unit, DK, None)", 1.752618652321053e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955346388309e-10]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.201578692923685e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.040363341718215e-09], ["'MUD raw materials' (unit, GLO, None)", 2.516541974161185e-09], ["'mechanical disinfection' (unit, DK, None)", 1.291569262742517e-07], ["'H200 SU' (unit, GLO, None)", -1.464041469393719e-08], ["'autoclave' (unit, DK, None)", 5.773057826039949e-08], ["'transport' (ton kilometer, GLO, None)", 1.6897513205531925e-09], ["'mixed heating grid' (megajoule, DK, None)", -6.144803664699657e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 8.302025636459946e-09], ["'eol MUD' (kilogram, GLO, None)", 2.1287387506500013e-09], ["'scalpel' (unit, GLO, None)", 3.685177873587671e-09], ["'surgery use' (unit, DK, None)", 1.752618652321053e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.911421278970257e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005053974244046525], ["'SUD raw materials' (unit, GLO, None)", 0.0007740388543867844], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001450442810258097], ["'mixed heating grid' (megajoule, DK, None)", -0.0001286797041949626], ["'transport' (ton kilometer, GLO, None)", 6.510637737708725e-06], ["'eol SUD' (kilogram, GLO, None)", 2.013580985794768e-05], ["'surgery use' (unit, DK, None)", 1.849325568352731e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4879442559896493e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002367536359461825], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.072512792882925e-05], ["'MUD raw materials' (unit, GLO, None)", 2.408276443066309e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0001303217001859864], ["'H200 SU' (unit, GLO, None)", 5.836108440739408e-05], ["'autoclave' (unit, DK, None)", 5.750472927390667e-05], ["'transport' (ton kilometer, GLO, None)", 2.663123052258301e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.324754001957513e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.001919001925829e-06], ["'eol MUD' (kilogram, GLO, None)", 6.186159094141276e-07], ["'scalpel' (unit, GLO, None)", 4.305807388823399e-05], ["'surgery use' (unit, DK, None)", 1.849325568352731e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00018987037022634464], ["'SUD manufacturing' (unit, GLO, None)", 0.003514348035389613], ["'SUD raw materials' (unit, GLO, None)", 0.0004064415577886623], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003542831369174555], ["'mixed heating grid' (megajoule, DK, None)", -0.00023951996165545727], ["'transport' (ton kilometer, GLO, None)", 1.4408455224250929e-05], ["'eol SUD' (kilogram, GLO, None)", 9.597144313020937e-05], ["'surgery use' (unit, DK, None)", 3.418728796217898e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6969028042192272e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004059580919990757], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.009290923233799e-05], ["'MUD raw materials' (unit, GLO, None)", 4.763020469188235e-06], ["'mechanical disinfection' (unit, DK, None)", 0.000237870448893585], ["'H200 SU' (unit, GLO, None)", 0.00010880935344222802], ["'autoclave' (unit, DK, None)", 0.0001019915009237066], ["'transport' (ton kilometer, GLO, None)", 5.893660621430642e-06], ["'mixed heating grid' (megajoule, DK, None)", -9.911313383509732e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4660203604638439e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9093506851202026e-06], ["'scalpel' (unit, GLO, None)", 3.349726599219498e-05], ["'surgery use' (unit, DK, None)", 3.418728796217898e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0002053207854537679], ["'SUD manufacturing' (unit, GLO, None)", 0.003606848543125487], ["'SUD raw materials' (unit, GLO, None)", 0.0004353569422022111], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003622796258614018], ["'mixed heating grid' (megajoule, DK, None)", -0.0002468567381731324], ["'transport' (ton kilometer, GLO, None)", 1.630040084657097e-05], ["'eol SUD' (kilogram, GLO, None)", 9.748421812842788e-05], ["'surgery use' (unit, DK, None)", 3.503057703731572e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497882381659565e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004162494329180668], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.37246366374464e-05], ["'MUD raw materials' (unit, GLO, None)", 4.882886117475969e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00024386400724047666], ["'H200 SU' (unit, GLO, None)", 0.0001163230216491684], ["'autoclave' (unit, DK, None)", 0.00010458797498511099], ["'transport' (ton kilometer, GLO, None)", 6.6675454854643865e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0214908502634104e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4991097581304922e-05], ["'eol MUD' (kilogram, GLO, None)", 2.957605748826087e-06], ["'scalpel' (unit, GLO, None)", 3.501499022151575e-05], ["'surgery use' (unit, DK, None)", 3.503057703731572e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0013558758713761642], ["'SUD manufacturing' (unit, GLO, None)", 0.01085671437132858], ["'SUD raw materials' (unit, GLO, None)", 0.004321421048325672], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031790866738956604], ["'mixed heating grid' (megajoule, DK, None)", -0.0010980661163495446], ["'transport' (ton kilometer, GLO, None)", 1.4729126952259415e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004205594365908916], ["'surgery use' (unit, DK, None)", 0.0002884118958757505], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521961984890272e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003411111396863905], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00024736313989290955], ["'MUD raw materials' (unit, GLO, None)", 7.773105903142865e-06], ["'mechanical disinfection' (unit, DK, None)", 0.002000101368840983], ["'H200 SU' (unit, GLO, None)", 0.000257537398132056], ["'autoclave' (unit, DK, None)", 0.0008926026515878115], ["'transport' (ton kilometer, GLO, None)", 6.024828765853841e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.543787214949994e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00013155031402739876], ["'eol MUD' (kilogram, GLO, None)", 1.2165982383641287e-05], ["'scalpel' (unit, GLO, None)", 9.843189406486342e-05], ["'surgery use' (unit, DK, None)", 0.0002884118958757505]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.285047307237056e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.739543484954777e-09], ["'SUD raw materials' (unit, GLO, None)", 1.13050873200051e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0857763351870314e-09], ["'mixed heating grid' (megajoule, DK, None)", -8.001185502589746e-10], ["'transport' (ton kilometer, GLO, None)", 3.576920590471449e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2516833354909284e-09], ["'surgery use' (unit, DK, None)", 1.051772048679688e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.348307687862514e-12]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.238391187909947e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.929600359685779e-11], ["'MUD raw materials' (unit, GLO, None)", 6.474216154890863e-12], ["'mechanical disinfection' (unit, DK, None)", 7.260637987539391e-10], ["'H200 SU' (unit, GLO, None)", 2.5234741502924924e-10], ["'autoclave' (unit, DK, None)", 3.1014278830350204e-10], ["'transport' (ton kilometer, GLO, None)", 1.4631100768224094e-11], ["'mixed heating grid' (megajoule, DK, None)", -3.3108830014692414e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.4929324837294477e-11], ["'eol MUD' (kilogram, GLO, None)", 4.2344931585003354e-11], ["'scalpel' (unit, GLO, None)", 6.94855481265173e-11], ["'surgery use' (unit, DK, None)", 1.051772048679688e-10]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.5691845179582859e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.97774494976339e-06], ["'SUD raw materials' (unit, GLO, None)", 8.151528079288333e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6989108934913715e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.7143880713546362e-07], ["'transport' (ton kilometer, GLO, None)", 1.5717589565989364e-08], ["'eol SUD' (kilogram, GLO, None)", 5.524078107643987e-07], ["'surgery use' (unit, DK, None)", 4.273809716537178e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0787755582341255e-09]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.332315678959107e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.344215216441802e-08], ["'MUD raw materials' (unit, GLO, None)", 7.302799999889893e-09], ["'mechanical disinfection' (unit, DK, None)", 3.005424470139837e-07], ["'H200 SU' (unit, GLO, None)", 1.4641790886493024e-07], ["'autoclave' (unit, DK, None)", 1.306831226564093e-07], ["'transport' (ton kilometer, GLO, None)", 6.429151303671178e-09], ["'mixed heating grid' (megajoule, DK, None)", -7.09412164176484e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.53060592400233e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6553888565223628e-08], ["'scalpel' (unit, GLO, None)", 1.019560742686461e-07], ["'surgery use' (unit, DK, None)", 4.273809716537178e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.016226350026750783], ["'SUD manufacturing' (unit, GLO, None)", 0.0657118779384806], ["'SUD raw materials' (unit, GLO, None)", 0.0262426521752963], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008643952987608118], ["'mixed heating grid' (megajoule, DK, None)", -0.0050703997406824925], ["'transport' (ton kilometer, GLO, None)", 0.00123165805942107], ["'eol SUD' (kilogram, GLO, None)", 0.0012210153878991692], ["'surgery use' (unit, DK, None)", 0.0008241898450883538], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6844763138544316e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009967868414503665], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036523865774305757], ["'MUD raw materials' (unit, GLO, None)", 9.178140202761554e-05], ["'mechanical disinfection' (unit, DK, None)", 0.005860582265678028], ["'H200 SU' (unit, GLO, None)", 0.013426853894363095], ["'autoclave' (unit, DK, None)", 0.0025318351880109376], ["'transport' (ton kilometer, GLO, None)", 0.0005037996433968877], ["'mixed heating grid' (megajoule, DK, None)", -0.0002098126622191936], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0003576859792138025], ["'eol MUD' (kilogram, GLO, None)", 4.020532957688969e-05], ["'scalpel' (unit, GLO, None)", 0.0009559316717021194], ["'surgery use' (unit, DK, None)", 0.0008241898450883538]]</t>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.000217933225903772], ["'SUD manufacturing' (unit, GLO, None)", 0.014493451705893938], ["'SUD raw materials' (unit, GLO, None)", 0.0023018812515747606], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000426182412722209], ["'mixed heating grid' (megajoule, DK, None)", -0.0002959219899603225], ["'transport' (ton kilometer, GLO, None)", 1.2469164082826707e-05], ["'eol SUD' (kilogram, GLO, None)", 5.3280041845598375e-05], ["'surgery use' (unit, DK, None)", 5.367420424950549e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.889632163782068e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006838744668207432], ["'packgaging materials' (kilogram, GLO, None)", 1.6262811753319617e-07], ["'MUD raw materials' (unit, GLO, None)", 5.044343527077364e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0003752089655609819], ["'H200 SU' (unit, GLO, None)", 0.0001294314612095637], ["'autoclave' (unit, DK, None)", 0.00016508799619386802], ["'transport' (ton kilometer, GLO, None)", 5.10040946051062e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.2245223985913876e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.7635389021293833e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6326346711935616e-06], ["'scalpel' (unit, GLO, None)", 6.249490286777009e-05], ["'surgery use' (unit, DK, None)", 5.367420424950549e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.07325435263714378], ["'SUD manufacturing' (unit, GLO, None)", 0.7599394500035327], ["'SUD raw materials' (unit, GLO, None)", 0.16524739249316153], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1758313748132896], ["'mixed heating grid' (megajoule, DK, None)", -0.0544477751368499], ["'transport' (ton kilometer, GLO, None)", 0.009047771285838651], ["'eol SUD' (kilogram, GLO, None)", 0.4215931858003368], ["'surgery use' (unit, DK, None)", 0.016230284901703272], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568839246861073]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1877127791743969], ["'packgaging materials' (kilogram, GLO, None)", 5.46645304821573e-05], ["'MUD raw materials' (unit, GLO, None)", 0.0009051563089579962], ["'mechanical disinfection' (unit, DK, None)", 0.1121101105101208], ["'H200 SU' (unit, GLO, None)", 0.10030260991217624], ["'autoclave' (unit, DK, None)", 0.04769806851629699], ["'transport' (ton kilometer, GLO, None)", 0.0037009167540256144], ["'mixed heating grid' (megajoule, DK, None)", -0.0022530437909490763], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.007275886109834533], ["'eol MUD' (kilogram, GLO, None)", 0.014436586113480887], ["'scalpel' (unit, GLO, None)", 0.012851706212618453], ["'surgery use' (unit, DK, None)", 0.016230284901703272]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0021169530731168936], ["'SUD manufacturing' (unit, GLO, None)", 1.3453906375304518], ["'SUD raw materials' (unit, GLO, None)", 0.01684144159178661], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01090253238706287], ["'mixed heating grid' (megajoule, DK, None)", -0.003162673717613043], ["'transport' (ton kilometer, GLO, None)", 0.00022606768299272942], ["'eol SUD' (kilogram, GLO, None)", 0.03563855015267832], ["'surgery use' (unit, DK, None)", 0.0034846771495890003], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687907476332518e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04348093039905101], ["'packgaging materials' (kilogram, GLO, None)", 1.5797320108459711e-06], ["'MUD raw materials' (unit, GLO, None)", 0.000865023131354999], ["'mechanical disinfection' (unit, DK, None)", 0.023493123382302493], ["'H200 SU' (unit, GLO, None)", 0.003770943002541409], ["'autoclave' (unit, DK, None)", 0.009872559330501218], ["'transport' (ton kilometer, GLO, None)", 9.247113450370475e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001308711396261132], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0004511457869295823], ["'eol MUD' (kilogram, GLO, None)", 0.0007276189352314492], ["'scalpel' (unit, GLO, None)", 0.0027923397101854985], ["'surgery use' (unit, DK, None)", 0.0034846771495890003]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.00281926086168892], ["'SUD manufacturing' (unit, GLO, None)", 1.727145795910309], ["'SUD raw materials' (unit, GLO, None)", 0.023140805295616573], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01421667121590312], ["'mixed heating grid' (megajoule, DK, None)", -0.004257589288169985], ["'transport' (ton kilometer, GLO, None)", 0.00040164541879584854], ["'eol SUD' (kilogram, GLO, None)", 0.048965684124651875], ["'surgery use' (unit, DK, None)", 0.004390462149168234], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867433862162026e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.054934622283443355], ["'packgaging materials' (kilogram, GLO, None)", 2.1038145279138456e-06], ["'MUD raw materials' (unit, GLO, None)", 0.0013639322447028524], ["'mechanical disinfection' (unit, DK, None)", 0.029630371915618393], ["'H200 SU' (unit, GLO, None)", 0.005312861592348577], ["'autoclave' (unit, DK, None)", 0.01246231992994126], ["'transport' (ton kilometer, GLO, None)", 0.00016428976956189806], ["'mixed heating grid' (megajoule, DK, None)", -0.00017617864248837813], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005882845467011378], ["'eol MUD' (kilogram, GLO, None)", 0.001037055638702436], ["'scalpel' (unit, GLO, None)", 0.003720088332990505], ["'surgery use' (unit, DK, None)", 0.004390462149168234]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.19932393975679102], ["'SUD manufacturing' (unit, GLO, None)", 102.7754556715733], ["'SUD raw materials' (unit, GLO, None)", 4.338663284220511], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4900751265328471], ["'mixed heating grid' (megajoule, DK, None)", -0.424654428398539], ["'transport' (ton kilometer, GLO, None)", 0.17452026800367854], ["'eol SUD' (kilogram, GLO, None)", 0.9620869911718407], ["'surgery use' (unit, DK, None)", 0.17646272952697473], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.002228912426076735]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.391785610777499], ["'packgaging materials' (kilogram, GLO, None)", 0.0001487413264660259], ["'MUD raw materials' (unit, GLO, None)", 0.014116583789708561], ["'mechanical disinfection' (unit, DK, None)", 1.1956288485687032], ["'H200 SU' (unit, GLO, None)", 0.23816360151981678], ["'autoclave' (unit, DK, None)", 0.506876224233929], ["'transport' (ton kilometer, GLO, None)", 0.07138608651423113], ["'mixed heating grid' (megajoule, DK, None)", -0.017572160125874915], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.02027926363939367], ["'eol MUD' (kilogram, GLO, None)", 0.034499710871781435], ["'scalpel' (unit, GLO, None)", 0.44252442795983127], ["'surgery use' (unit, DK, None)", 0.17646272952697473]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.04023032568882961], ["'SUD manufacturing' (unit, GLO, None)", 0.20782120583499553], ["'SUD raw materials' (unit, GLO, None)", 0.06836056390686601], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04629574773642991], ["'mixed heating grid' (megajoule, DK, None)", -0.015907111181628245], ["'transport' (ton kilometer, GLO, None)", 0.002851405202411178], ["'eol SUD' (kilogram, GLO, None)", 0.0030884126465350326], ["'surgery use' (unit, DK, None)", 0.004169948934157744], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301598925428905]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.048293324482943115], ["'packgaging materials' (kilogram, GLO, None)", 3.0021040194259358e-05], ["'MUD raw materials' (unit, GLO, None)", 0.00023250608945089732], ["'mechanical disinfection' (unit, DK, None)", 0.028876569173547105], ["'H200 SU' (unit, GLO, None)", 0.03405038211807322], ["'autoclave' (unit, DK, None)", 0.012213540766465258], ["'transport' (ton kilometer, GLO, None)", 0.0011663439484413504], ["'mixed heating grid' (megajoule, DK, None)", -0.0006582347577954247], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00191571378121554], ["'eol MUD' (kilogram, GLO, None)", 0.0001012841205681189], ["'scalpel' (unit, GLO, None)", 0.003063037529365741], ["'surgery use' (unit, DK, None)", 0.004169948934157744]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 2.04638332130397e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.0019247262652839527], ["'SUD raw materials' (unit, GLO, None)", 4.928300453400991e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001461252791668867], ["'mixed heating grid' (megajoule, DK, None)", -2.230072092580476e-05], ["'transport' (ton kilometer, GLO, None)", 6.466690347690471e-07], ["'eol SUD' (kilogram, GLO, None)", 7.295930426906038e-06], ["'surgery use' (unit, DK, None)", 1.4203793472627415e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300989373285446e-07]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001877230838744959], ["'packgaging materials' (kilogram, GLO, None)", 1.5270708076516124e-08], ["'MUD raw materials' (unit, GLO, None)", 1.3462658684068456e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00010690829466873588], ["'H200 SU' (unit, GLO, None)", 5.4881571093760974e-06], ["'autoclave' (unit, DK, None)", 4.824079903511854e-05], ["'transport' (ton kilometer, GLO, None)", 2.6451467322479994e-07], ["'mixed heating grid' (megajoule, DK, None)", -9.22801724942612e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.046650605530538e-06], ["'eol MUD' (kilogram, GLO, None)", 2.1396645994945116e-07], ["'scalpel' (unit, GLO, None)", 6.495437424026572e-06], ["'surgery use' (unit, DK, None)", 1.4203793472627415e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 5.81418974238145e-06], ["'SUD manufacturing' (unit, GLO, None)", 6.042957304204081e-05], ["'SUD raw materials' (unit, GLO, None)", 9.421561054890103e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2654931856773238e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.9920427315765205e-05], ["'transport' (ton kilometer, GLO, None)", 2.5460124168422725e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1578754418984617e-06], ["'surgery use' (unit, DK, None)", 1.4235292805884765e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762573320509e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.921492323622215e-05], ["'packgaging materials' (kilogram, GLO, None)", 4.338717645568281e-09], ["'MUD raw materials' (unit, GLO, None)", 5.91608452088953e-08], ["'mechanical disinfection' (unit, DK, None)", 4.770289316735943e-05], ["'H200 SU' (unit, GLO, None)", -2.6959784385350377e-06], ["'autoclave' (unit, DK, None)", 3.302809747707872e-05], ["'transport' (ton kilometer, GLO, None)", 1.041425530306762e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.2381044554509978e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.236599157310332e-07], ["'eol MUD' (kilogram, GLO, None)", 5.731670313235649e-08], ["'scalpel' (unit, GLO, None)", 7.484963222329542e-07], ["'surgery use' (unit, DK, None)", 1.4235292805884765e-06]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.003186489859122479], ["'SUD manufacturing' (unit, GLO, None)", 0.1684748403603112], ["'SUD raw materials' (unit, GLO, None)", 0.02807747992745142], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014567015894615223], ["'mixed heating grid' (megajoule, DK, None)", -0.0030498522391853963], ["'transport' (ton kilometer, GLO, None)", 0.00046867191735035615], ["'eol SUD' (kilogram, GLO, None)", 0.005098283774078206], ["'surgery use' (unit, DK, None)", 0.0014984569289411673], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.779008845486375e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01838322658189697], ["'packgaging materials' (kilogram, GLO, None)", 2.3778514963868983e-06], ["'MUD raw materials' (unit, GLO, None)", 0.00036920235187691455], ["'mechanical disinfection' (unit, DK, None)", 0.010598429846493222], ["'H200 SU' (unit, GLO, None)", 0.001722292185687515], ["'autoclave' (unit, DK, None)", 0.004600309688892087], ["'transport' (ton kilometer, GLO, None)", 0.00019170640992860445], ["'mixed heating grid' (megajoule, DK, None)", -0.00012620259750812556], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006027817772676543], ["'eol MUD' (kilogram, GLO, None)", 0.00014187219678798017], ["'scalpel' (unit, GLO, None)", 0.016009760233313092], ["'surgery use' (unit, DK, None)", 0.0014984569289411673]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.05590355841054033], ["'SUD manufacturing' (unit, GLO, None)", 19.784025198970642], ["'SUD raw materials' (unit, GLO, None)", 0.31798913606260637], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.2599801424070854], ["'mixed heating grid' (megajoule, DK, None)", -0.11896070268105209], ["'transport' (ton kilometer, GLO, None)", 0.007121715866701352], ["'eol SUD' (kilogram, GLO, None)", 0.5721151086031498], ["'surgery use' (unit, DK, None)", 0.04545673748860148], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017273671497718996]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.617409206484011], ["'packgaging materials' (kilogram, GLO, None)", 4.17168627225643e-05], ["'MUD raw materials' (unit, GLO, None)", 0.01622152654449242], ["'mechanical disinfection' (unit, DK, None)", 0.3265408805798505], ["'H200 SU' (unit, GLO, None)", 0.04513073219232335], ["'autoclave' (unit, DK, None)", 0.14387348304814523], ["'transport' (ton kilometer, GLO, None)", 0.0029130795569222907], ["'mixed heating grid' (megajoule, DK, None)", -0.0049225826375610135], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.010757954369526703], ["'eol MUD' (kilogram, GLO, None)", 0.009933703808963544], ["'scalpel' (unit, GLO, None)", 0.04190537951620722], ["'surgery use' (unit, DK, None)", 0.04545673748860148]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.005306431092350257], ["'SUD manufacturing' (unit, GLO, None)", 0.1003765748615008], ["'SUD raw materials' (unit, GLO, None)", 0.009525746373171535], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05325822335540196], ["'mixed heating grid' (megajoule, DK, None)", -0.002230216560661448], ["'transport' (ton kilometer, GLO, None)", 0.00014709200785456222], ["'eol SUD' (kilogram, GLO, None)", 0.0004189323110410555], ["'surgery use' (unit, DK, None)", 0.004535809516283955], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393756735383852e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05135719812310295], ["'packgaging materials' (kilogram, GLO, None)", 3.9598133592974446e-06], ["'MUD raw materials' (unit, GLO, None)", 5.461090725600252e-05], ["'mechanical disinfection' (unit, DK, None)", 0.03115435060117078], ["'H200 SU' (unit, GLO, None)", 0.0003526988826333163], ["'autoclave' (unit, DK, None)", 0.012897365920600447], ["'transport' (ton kilometer, GLO, None)", 6.016678130494516e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.228615056980249e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00220382038164412], ["'eol MUD' (kilogram, GLO, None)", 1.367157506709166e-05], ["'scalpel' (unit, GLO, None)", 0.0008099262796407999], ["'surgery use' (unit, DK, None)", 0.004535809516283955]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.014939211294443666], ["'SUD manufacturing' (unit, GLO, None)", 0.05611561609202762], ["'SUD raw materials' (unit, GLO, None)", 0.003024483458977392], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03876524148545477], ["'mixed heating grid' (megajoule, DK, None)", -0.059811500946055356], ["'transport' (ton kilometer, GLO, None)", 0.0003449109798527071], ["'eol SUD' (kilogram, GLO, None)", 0.0001804135440654717], ["'surgery use' (unit, DK, None)", 0.0033181711629605122], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.55699391770993e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.036644938199864655], ["'packgaging materials' (kilogram, GLO, None)", 1.1148074370811146e-05], ["'MUD raw materials' (unit, GLO, None)", 4.90486203286378e-05], ["'mechanical disinfection' (unit, DK, None)", 0.022147095147254974], ["'H200 SU' (unit, GLO, None)", -0.009082945477312594], ["'autoclave' (unit, DK, None)", 0.009222094410922584], ["'transport' (ton kilometer, GLO, None)", 0.00014108301189953823], ["'mixed heating grid' (megajoule, DK, None)", -0.002474994258170368], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0016041021255046451], ["'eol MUD' (kilogram, GLO, None)", 4.808303505954188e-06], ["'scalpel' (unit, GLO, None)", 0.0004507693032491023], ["'surgery use' (unit, DK, None)", 0.0033181711629605122]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0057859882402645025], ["'SUD manufacturing' (unit, GLO, None)", 0.06718160031041252], ["'SUD raw materials' (unit, GLO, None)", 0.008941788081229496], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0011929833474165238], ["'mixed heating grid' (megajoule, DK, None)", -0.0004284671468543529], ["'transport' (ton kilometer, GLO, None)", 0.00010199918379811616], ["'eol SUD' (kilogram, GLO, None)", 0.0004314847279709642], ["'surgery use' (unit, DK, None)", 0.00018551378391384608], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338637180298667e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002847962434474949], ["'packgaging materials' (kilogram, GLO, None)", 4.317672863700497e-06], ["'MUD raw materials' (unit, GLO, None)", 0.00010783909133993896], ["'mechanical disinfection' (unit, DK, None)", 0.0014413924152082262], ["'H200 SU' (unit, GLO, None)", 0.0005335416293602986], ["'autoclave' (unit, DK, None)", 0.0007567583416717263], ["'transport' (ton kilometer, GLO, None)", 4.172193088105851e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.7729930055351695e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.936554113820045e-05], ["'eol MUD' (kilogram, GLO, None)", 1.4054603644804344e-05], ["'scalpel' (unit, GLO, None)", 0.0011101226208047532], ["'surgery use' (unit, DK, None)", 0.00018551378391384608]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 2.2681981286309486e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.869017634813851e-07], ["'SUD raw materials' (unit, GLO, None)", 8.265723535363978e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.006293885525272e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.48497285707812e-07], ["'transport' (ton kilometer, GLO, None)", 4.130999018467332e-09], ["'eol SUD' (kilogram, GLO, None)", 8.589611577441693e-08], ["'surgery use' (unit, DK, None)", 1.7526186523210535e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955346388309e-10]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.2015786929236846e-07], ["'packgaging materials' (kilogram, GLO, None)", 1.692595474241475e-11], ["'MUD raw materials' (unit, GLO, None)", 2.516541974161185e-09], ["'mechanical disinfection' (unit, DK, None)", 1.291569262742517e-07], ["'H200 SU' (unit, GLO, None)", -1.4640413983545734e-08], ["'autoclave' (unit, DK, None)", 5.773057826039949e-08], ["'transport' (ton kilometer, GLO, None)", 1.6897513205531925e-09], ["'mixed heating grid' (megajoule, DK, None)", -6.144803652598496e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 8.302025636459948e-09], ["'eol MUD' (kilogram, GLO, None)", 2.1287387506500013e-09], ["'scalpel' (unit, GLO, None)", 3.6851778735876714e-09], ["'surgery use' (unit, DK, None)", 1.7526186523210535e-08]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 9.901484252004811e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005053974244046525], ["'SUD raw materials' (unit, GLO, None)", 0.0007740388543867844], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014504428102580968], ["'mixed heating grid' (megajoule, DK, None)", -0.00012867970591025698], ["'transport' (ton kilometer, GLO, None)", 6.510637737708725e-06], ["'eol SUD' (kilogram, GLO, None)", 2.0135809857947688e-05], ["'surgery use' (unit, DK, None)", 1.849325568352731e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.487944255989649e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00023675363594618252], ["'packgaging materials' (kilogram, GLO, None)", 7.388775795936397e-08], ["'MUD raw materials' (unit, GLO, None)", 2.4082764430663088e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0001303217001859864], ["'H200 SU' (unit, GLO, None)", 5.836108836950194e-05], ["'autoclave' (unit, DK, None)", 5.7504729273906675e-05], ["'transport' (ton kilometer, GLO, None)", 2.663123052258301e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.324754072936232e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.001919001925828e-06], ["'eol MUD' (kilogram, GLO, None)", 6.186159094141276e-07], ["'scalpel' (unit, GLO, None)", 4.305807388823399e-05], ["'surgery use' (unit, DK, None)", 1.849325568352731e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0001896800093350281], ["'SUD manufacturing' (unit, GLO, None)", 0.0035143480353896127], ["'SUD raw materials' (unit, GLO, None)", 0.00040644155778866227], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003542831369174555], ["'mixed heating grid' (megajoule, DK, None)", -0.00023951996097961917], ["'transport' (ton kilometer, GLO, None)", 1.440845522425093e-05], ["'eol SUD' (kilogram, GLO, None)", 9.597144313020937e-05], ["'surgery use' (unit, DK, None)", 3.418728796217898e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6969028042192276e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004059580919990757], ["'packgaging materials' (kilogram, GLO, None)", 1.4154474483599517e-07], ["'MUD raw materials' (unit, GLO, None)", 4.763020469188235e-06], ["'mechanical disinfection' (unit, DK, None)", 0.000237870448893585], ["'H200 SU' (unit, GLO, None)", 0.00010880936114248855], ["'autoclave' (unit, DK, None)", 0.0001019915009237066], ["'transport' (ton kilometer, GLO, None)", 5.893660621430644e-06], ["'mixed heating grid' (megajoule, DK, None)", -9.911313355543614e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4660203604638439e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9093506851202022e-06], ["'scalpel' (unit, GLO, None)", 3.349726599219498e-05], ["'surgery use' (unit, DK, None)", 3.418728796217898e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.00020511493423180948], ["'SUD manufacturing' (unit, GLO, None)", 0.0036068485431254866], ["'SUD raw materials' (unit, GLO, None)", 0.00043535694220221113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003622796258614018], ["'mixed heating grid' (megajoule, DK, None)", -0.0002468567383130796], ["'transport' (ton kilometer, GLO, None)", 1.6300400846570973e-05], ["'eol SUD' (kilogram, GLO, None)", 9.748421812842788e-05], ["'surgery use' (unit, DK, None)", 3.5030577037315725e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497882381659571e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004162494329180668], ["'packgaging materials' (kilogram, GLO, None)", 1.530627351278388e-07], ["'MUD raw materials' (unit, GLO, None)", 4.882886117475969e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00024386400724047666], ["'H200 SU' (unit, GLO, None)", 0.0001163230295585888], ["'autoclave' (unit, DK, None)", 0.00010458797498511099], ["'transport' (ton kilometer, GLO, None)", 6.667545485464387e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0214908508425107e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4991097581304922e-05], ["'eol MUD' (kilogram, GLO, None)", 2.957605748826087e-06], ["'scalpel' (unit, GLO, None)", 3.501499022151575e-05], ["'surgery use' (unit, DK, None)", 3.5030577037315725e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0013545164926638247], ["'SUD manufacturing' (unit, GLO, None)", 0.010856714371328577], ["'SUD raw materials' (unit, GLO, None)", 0.004321421048325672], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031790866738956604], ["'mixed heating grid' (megajoule, DK, None)", -0.0010980661099917975], ["'transport' (ton kilometer, GLO, None)", 1.4729126952259412e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004205594365908916], ["'surgery use' (unit, DK, None)", 0.0002884118958757505], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521961984890272e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0034111113968639047], ["'packgaging materials' (kilogram, GLO, None)", 1.0107796388369456e-06], ["'MUD raw materials' (unit, GLO, None)", 7.773105903142865e-06], ["'mechanical disinfection' (unit, DK, None)", 0.002000101368840983], ["'H200 SU' (unit, GLO, None)", 0.0002575374113624009], ["'autoclave' (unit, DK, None)", 0.0008926026515878116], ["'transport' (ton kilometer, GLO, None)", 6.02482876585384e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.543787188641697e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00013155031402739876], ["'eol MUD' (kilogram, GLO, None)", 1.2165982383641287e-05], ["'scalpel' (unit, GLO, None)", 9.843189406486342e-05], ["'surgery use' (unit, DK, None)", 0.0002884118958757505]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 4.2807511897134694e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.739543484954777e-09], ["'SUD raw materials' (unit, GLO, None)", 1.1305087320005098e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0857763351870314e-09], ["'mixed heating grid' (megajoule, DK, None)", -8.001185521279514e-10], ["'transport' (ton kilometer, GLO, None)", 3.576920590471449e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2516833354909284e-09], ["'surgery use' (unit, DK, None)", 1.051772048679688e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3483076878625137e-12]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.2383911879099475e-09], ["'packgaging materials' (kilogram, GLO, None)", 3.194421156866114e-13], ["'MUD raw materials' (unit, GLO, None)", 6.4742161548908625e-12], ["'mechanical disinfection' (unit, DK, None)", 7.260637987539391e-10], ["'H200 SU' (unit, GLO, None)", 2.52347425726422e-10], ["'autoclave' (unit, DK, None)", 3.10142788303502e-10], ["'transport' (ton kilometer, GLO, None)", 1.4631100768224094e-11], ["'mixed heating grid' (megajoule, DK, None)", -3.310883009203049e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.4929324837294477e-11], ["'eol MUD' (kilogram, GLO, None)", 4.2344931585003354e-11], ["'scalpel' (unit, GLO, None)", 6.94855481265173e-11], ["'surgery use' (unit, DK, None)", 1.051772048679688e-10]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 1.567611279526599e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.97774494976339e-06], ["'SUD raw materials' (unit, GLO, None)", 8.151528079288333e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6989108934913715e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.7143881321579754e-07], ["'transport' (ton kilometer, GLO, None)", 1.5717589565989364e-08], ["'eol SUD' (kilogram, GLO, None)", 5.524078107643987e-07], ["'surgery use' (unit, DK, None)", 4.273809716537178e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.078775558234125e-09]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.332315678959107e-07], ["'packgaging materials' (kilogram, GLO, None)", 1.1697971723035158e-10], ["'MUD raw materials' (unit, GLO, None)", 7.302799999889893e-09], ["'mechanical disinfection' (unit, DK, None)", 3.005424470139837e-07], ["'H200 SU' (unit, GLO, None)", 1.4641791654581593e-07], ["'autoclave' (unit, DK, None)", 1.306831226564093e-07], ["'transport' (ton kilometer, GLO, None)", 6.429151303671178e-09], ["'mixed heating grid' (megajoule, DK, None)", -7.0941218933684844e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.53060592400233e-08], ["'eol MUD' (kilogram, GLO, None)", 1.655388856522363e-08], ["'scalpel' (unit, GLO, None)", 1.0195607426864611e-07], ["'surgery use' (unit, DK, None)", 4.273809716537178e-08]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.016210081756718845], ["'SUD manufacturing' (unit, GLO, None)", 0.0657118779384806], ["'SUD raw materials' (unit, GLO, None)", 0.026242652175296297], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008643952987608118], ["'mixed heating grid' (megajoule, DK, None)", -0.005070399872780039], ["'transport' (ton kilometer, GLO, None)", 0.0012316580594210701], ["'eol SUD' (kilogram, GLO, None)", 0.0012210153878991692], ["'surgery use' (unit, DK, None)", 0.0008241898450883538], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6844763138544316e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009967868414503665], ["'packgaging materials' (kilogram, GLO, None)", 1.2096434906710404e-05], ["'MUD raw materials' (unit, GLO, None)", 9.178140202761554e-05], ["'mechanical disinfection' (unit, DK, None)", 0.005860582265678029], ["'H200 SU' (unit, GLO, None)", 0.01342685402824118], ["'autoclave' (unit, DK, None)", 0.0025318351880109385], ["'transport' (ton kilometer, GLO, None)", 0.0005037996433968878], ["'mixed heating grid' (megajoule, DK, None)", -0.0002098126676853776], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0003576859792138025], ["'eol MUD' (kilogram, GLO, None)", 4.020532957688969e-05], ["'scalpel' (unit, GLO, None)", 0.0009559316717021194], ["'surgery use' (unit, DK, None)", 0.0008241898450883538]]</t>
   </si>
 </sst>
 </file>

--- a/results/case2/data_case2_apos_recipe.xlsx
+++ b/results/case2/data_case2_apos_recipe.xlsx
@@ -85,130 +85,130 @@
     <t>MUD</t>
   </si>
   <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.000217933225903772], ["'SUD manufacturing' (unit, GLO, None)", 0.014493451705893938], ["'SUD raw materials' (unit, GLO, None)", 0.0023018812515747606], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000426182412722209], ["'mixed heating grid' (megajoule, DK, None)", -0.0002959219899603225], ["'transport' (ton kilometer, GLO, None)", 1.2469164082826707e-05], ["'eol SUD' (kilogram, GLO, None)", 5.3280041845598375e-05], ["'surgery use' (unit, DK, None)", 5.367420424950549e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.889632163782068e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006838744668207432], ["'packgaging materials' (kilogram, GLO, None)", 1.6262811753319617e-07], ["'MUD raw materials' (unit, GLO, None)", 5.044343527077364e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0003752089655609819], ["'H200 SU' (unit, GLO, None)", 0.0001294314612095637], ["'autoclave' (unit, DK, None)", 0.00016508799619386802], ["'transport' (ton kilometer, GLO, None)", 5.10040946051062e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.2245223985913876e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.7635389021293833e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6326346711935616e-06], ["'scalpel' (unit, GLO, None)", 6.249490286777009e-05], ["'surgery use' (unit, DK, None)", 5.367420424950549e-05]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.07325435263714378], ["'SUD manufacturing' (unit, GLO, None)", 0.7599394500035327], ["'SUD raw materials' (unit, GLO, None)", 0.16524739249316153], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1758313748132896], ["'mixed heating grid' (megajoule, DK, None)", -0.0544477751368499], ["'transport' (ton kilometer, GLO, None)", 0.009047771285838651], ["'eol SUD' (kilogram, GLO, None)", 0.4215931858003368], ["'surgery use' (unit, DK, None)", 0.016230284901703272], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568839246861073]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1877127791743969], ["'packgaging materials' (kilogram, GLO, None)", 5.46645304821573e-05], ["'MUD raw materials' (unit, GLO, None)", 0.0009051563089579962], ["'mechanical disinfection' (unit, DK, None)", 0.1121101105101208], ["'H200 SU' (unit, GLO, None)", 0.10030260991217624], ["'autoclave' (unit, DK, None)", 0.04769806851629699], ["'transport' (ton kilometer, GLO, None)", 0.0037009167540256144], ["'mixed heating grid' (megajoule, DK, None)", -0.0022530437909490763], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.007275886109834533], ["'eol MUD' (kilogram, GLO, None)", 0.014436586113480887], ["'scalpel' (unit, GLO, None)", 0.012851706212618453], ["'surgery use' (unit, DK, None)", 0.016230284901703272]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0021169530731168936], ["'SUD manufacturing' (unit, GLO, None)", 1.3453906375304518], ["'SUD raw materials' (unit, GLO, None)", 0.01684144159178661], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01090253238706287], ["'mixed heating grid' (megajoule, DK, None)", -0.003162673717613043], ["'transport' (ton kilometer, GLO, None)", 0.00022606768299272942], ["'eol SUD' (kilogram, GLO, None)", 0.03563855015267832], ["'surgery use' (unit, DK, None)", 0.0034846771495890003], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687907476332518e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04348093039905101], ["'packgaging materials' (kilogram, GLO, None)", 1.5797320108459711e-06], ["'MUD raw materials' (unit, GLO, None)", 0.000865023131354999], ["'mechanical disinfection' (unit, DK, None)", 0.023493123382302493], ["'H200 SU' (unit, GLO, None)", 0.003770943002541409], ["'autoclave' (unit, DK, None)", 0.009872559330501218], ["'transport' (ton kilometer, GLO, None)", 9.247113450370475e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001308711396261132], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0004511457869295823], ["'eol MUD' (kilogram, GLO, None)", 0.0007276189352314492], ["'scalpel' (unit, GLO, None)", 0.0027923397101854985], ["'surgery use' (unit, DK, None)", 0.0034846771495890003]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.00281926086168892], ["'SUD manufacturing' (unit, GLO, None)", 1.727145795910309], ["'SUD raw materials' (unit, GLO, None)", 0.023140805295616573], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01421667121590312], ["'mixed heating grid' (megajoule, DK, None)", -0.004257589288169985], ["'transport' (ton kilometer, GLO, None)", 0.00040164541879584854], ["'eol SUD' (kilogram, GLO, None)", 0.048965684124651875], ["'surgery use' (unit, DK, None)", 0.004390462149168234], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867433862162026e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.054934622283443355], ["'packgaging materials' (kilogram, GLO, None)", 2.1038145279138456e-06], ["'MUD raw materials' (unit, GLO, None)", 0.0013639322447028524], ["'mechanical disinfection' (unit, DK, None)", 0.029630371915618393], ["'H200 SU' (unit, GLO, None)", 0.005312861592348577], ["'autoclave' (unit, DK, None)", 0.01246231992994126], ["'transport' (ton kilometer, GLO, None)", 0.00016428976956189806], ["'mixed heating grid' (megajoule, DK, None)", -0.00017617864248837813], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005882845467011378], ["'eol MUD' (kilogram, GLO, None)", 0.001037055638702436], ["'scalpel' (unit, GLO, None)", 0.003720088332990505], ["'surgery use' (unit, DK, None)", 0.004390462149168234]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.19932393975679102], ["'SUD manufacturing' (unit, GLO, None)", 102.7754556715733], ["'SUD raw materials' (unit, GLO, None)", 4.338663284220511], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4900751265328471], ["'mixed heating grid' (megajoule, DK, None)", -0.424654428398539], ["'transport' (ton kilometer, GLO, None)", 0.17452026800367854], ["'eol SUD' (kilogram, GLO, None)", 0.9620869911718407], ["'surgery use' (unit, DK, None)", 0.17646272952697473], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.002228912426076735]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.391785610777499], ["'packgaging materials' (kilogram, GLO, None)", 0.0001487413264660259], ["'MUD raw materials' (unit, GLO, None)", 0.014116583789708561], ["'mechanical disinfection' (unit, DK, None)", 1.1956288485687032], ["'H200 SU' (unit, GLO, None)", 0.23816360151981678], ["'autoclave' (unit, DK, None)", 0.506876224233929], ["'transport' (ton kilometer, GLO, None)", 0.07138608651423113], ["'mixed heating grid' (megajoule, DK, None)", -0.017572160125874915], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.02027926363939367], ["'eol MUD' (kilogram, GLO, None)", 0.034499710871781435], ["'scalpel' (unit, GLO, None)", 0.44252442795983127], ["'surgery use' (unit, DK, None)", 0.17646272952697473]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.04023032568882961], ["'SUD manufacturing' (unit, GLO, None)", 0.20782120583499553], ["'SUD raw materials' (unit, GLO, None)", 0.06836056390686601], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04629574773642991], ["'mixed heating grid' (megajoule, DK, None)", -0.015907111181628245], ["'transport' (ton kilometer, GLO, None)", 0.002851405202411178], ["'eol SUD' (kilogram, GLO, None)", 0.0030884126465350326], ["'surgery use' (unit, DK, None)", 0.004169948934157744], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301598925428905]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.048293324482943115], ["'packgaging materials' (kilogram, GLO, None)", 3.0021040194259358e-05], ["'MUD raw materials' (unit, GLO, None)", 0.00023250608945089732], ["'mechanical disinfection' (unit, DK, None)", 0.028876569173547105], ["'H200 SU' (unit, GLO, None)", 0.03405038211807322], ["'autoclave' (unit, DK, None)", 0.012213540766465258], ["'transport' (ton kilometer, GLO, None)", 0.0011663439484413504], ["'mixed heating grid' (megajoule, DK, None)", -0.0006582347577954247], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00191571378121554], ["'eol MUD' (kilogram, GLO, None)", 0.0001012841205681189], ["'scalpel' (unit, GLO, None)", 0.003063037529365741], ["'surgery use' (unit, DK, None)", 0.004169948934157744]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 2.04638332130397e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.0019247262652839527], ["'SUD raw materials' (unit, GLO, None)", 4.928300453400991e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001461252791668867], ["'mixed heating grid' (megajoule, DK, None)", -2.230072092580476e-05], ["'transport' (ton kilometer, GLO, None)", 6.466690347690471e-07], ["'eol SUD' (kilogram, GLO, None)", 7.295930426906038e-06], ["'surgery use' (unit, DK, None)", 1.4203793472627415e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300989373285446e-07]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001877230838744959], ["'packgaging materials' (kilogram, GLO, None)", 1.5270708076516124e-08], ["'MUD raw materials' (unit, GLO, None)", 1.3462658684068456e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00010690829466873588], ["'H200 SU' (unit, GLO, None)", 5.4881571093760974e-06], ["'autoclave' (unit, DK, None)", 4.824079903511854e-05], ["'transport' (ton kilometer, GLO, None)", 2.6451467322479994e-07], ["'mixed heating grid' (megajoule, DK, None)", -9.22801724942612e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.046650605530538e-06], ["'eol MUD' (kilogram, GLO, None)", 2.1396645994945116e-07], ["'scalpel' (unit, GLO, None)", 6.495437424026572e-06], ["'surgery use' (unit, DK, None)", 1.4203793472627415e-05]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 5.81418974238145e-06], ["'SUD manufacturing' (unit, GLO, None)", 6.042957304204081e-05], ["'SUD raw materials' (unit, GLO, None)", 9.421561054890103e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2654931856773238e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.9920427315765205e-05], ["'transport' (ton kilometer, GLO, None)", 2.5460124168422725e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1578754418984617e-06], ["'surgery use' (unit, DK, None)", 1.4235292805884765e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762573320509e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.921492323622215e-05], ["'packgaging materials' (kilogram, GLO, None)", 4.338717645568281e-09], ["'MUD raw materials' (unit, GLO, None)", 5.91608452088953e-08], ["'mechanical disinfection' (unit, DK, None)", 4.770289316735943e-05], ["'H200 SU' (unit, GLO, None)", -2.6959784385350377e-06], ["'autoclave' (unit, DK, None)", 3.302809747707872e-05], ["'transport' (ton kilometer, GLO, None)", 1.041425530306762e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.2381044554509978e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.236599157310332e-07], ["'eol MUD' (kilogram, GLO, None)", 5.731670313235649e-08], ["'scalpel' (unit, GLO, None)", 7.484963222329542e-07], ["'surgery use' (unit, DK, None)", 1.4235292805884765e-06]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.003186489859122479], ["'SUD manufacturing' (unit, GLO, None)", 0.1684748403603112], ["'SUD raw materials' (unit, GLO, None)", 0.02807747992745142], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014567015894615223], ["'mixed heating grid' (megajoule, DK, None)", -0.0030498522391853963], ["'transport' (ton kilometer, GLO, None)", 0.00046867191735035615], ["'eol SUD' (kilogram, GLO, None)", 0.005098283774078206], ["'surgery use' (unit, DK, None)", 0.0014984569289411673], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.779008845486375e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01838322658189697], ["'packgaging materials' (kilogram, GLO, None)", 2.3778514963868983e-06], ["'MUD raw materials' (unit, GLO, None)", 0.00036920235187691455], ["'mechanical disinfection' (unit, DK, None)", 0.010598429846493222], ["'H200 SU' (unit, GLO, None)", 0.001722292185687515], ["'autoclave' (unit, DK, None)", 0.004600309688892087], ["'transport' (ton kilometer, GLO, None)", 0.00019170640992860445], ["'mixed heating grid' (megajoule, DK, None)", -0.00012620259750812556], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006027817772676543], ["'eol MUD' (kilogram, GLO, None)", 0.00014187219678798017], ["'scalpel' (unit, GLO, None)", 0.016009760233313092], ["'surgery use' (unit, DK, None)", 0.0014984569289411673]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.05590355841054033], ["'SUD manufacturing' (unit, GLO, None)", 19.784025198970642], ["'SUD raw materials' (unit, GLO, None)", 0.31798913606260637], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.2599801424070854], ["'mixed heating grid' (megajoule, DK, None)", -0.11896070268105209], ["'transport' (ton kilometer, GLO, None)", 0.007121715866701352], ["'eol SUD' (kilogram, GLO, None)", 0.5721151086031498], ["'surgery use' (unit, DK, None)", 0.04545673748860148], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017273671497718996]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.617409206484011], ["'packgaging materials' (kilogram, GLO, None)", 4.17168627225643e-05], ["'MUD raw materials' (unit, GLO, None)", 0.01622152654449242], ["'mechanical disinfection' (unit, DK, None)", 0.3265408805798505], ["'H200 SU' (unit, GLO, None)", 0.04513073219232335], ["'autoclave' (unit, DK, None)", 0.14387348304814523], ["'transport' (ton kilometer, GLO, None)", 0.0029130795569222907], ["'mixed heating grid' (megajoule, DK, None)", -0.0049225826375610135], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.010757954369526703], ["'eol MUD' (kilogram, GLO, None)", 0.009933703808963544], ["'scalpel' (unit, GLO, None)", 0.04190537951620722], ["'surgery use' (unit, DK, None)", 0.04545673748860148]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.005306431092350257], ["'SUD manufacturing' (unit, GLO, None)", 0.1003765748615008], ["'SUD raw materials' (unit, GLO, None)", 0.009525746373171535], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05325822335540196], ["'mixed heating grid' (megajoule, DK, None)", -0.002230216560661448], ["'transport' (ton kilometer, GLO, None)", 0.00014709200785456222], ["'eol SUD' (kilogram, GLO, None)", 0.0004189323110410555], ["'surgery use' (unit, DK, None)", 0.004535809516283955], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393756735383852e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05135719812310295], ["'packgaging materials' (kilogram, GLO, None)", 3.9598133592974446e-06], ["'MUD raw materials' (unit, GLO, None)", 5.461090725600252e-05], ["'mechanical disinfection' (unit, DK, None)", 0.03115435060117078], ["'H200 SU' (unit, GLO, None)", 0.0003526988826333163], ["'autoclave' (unit, DK, None)", 0.012897365920600447], ["'transport' (ton kilometer, GLO, None)", 6.016678130494516e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.228615056980249e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00220382038164412], ["'eol MUD' (kilogram, GLO, None)", 1.367157506709166e-05], ["'scalpel' (unit, GLO, None)", 0.0008099262796407999], ["'surgery use' (unit, DK, None)", 0.004535809516283955]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.014939211294443666], ["'SUD manufacturing' (unit, GLO, None)", 0.05611561609202762], ["'SUD raw materials' (unit, GLO, None)", 0.003024483458977392], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03876524148545477], ["'mixed heating grid' (megajoule, DK, None)", -0.059811500946055356], ["'transport' (ton kilometer, GLO, None)", 0.0003449109798527071], ["'eol SUD' (kilogram, GLO, None)", 0.0001804135440654717], ["'surgery use' (unit, DK, None)", 0.0033181711629605122], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.55699391770993e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.036644938199864655], ["'packgaging materials' (kilogram, GLO, None)", 1.1148074370811146e-05], ["'MUD raw materials' (unit, GLO, None)", 4.90486203286378e-05], ["'mechanical disinfection' (unit, DK, None)", 0.022147095147254974], ["'H200 SU' (unit, GLO, None)", -0.009082945477312594], ["'autoclave' (unit, DK, None)", 0.009222094410922584], ["'transport' (ton kilometer, GLO, None)", 0.00014108301189953823], ["'mixed heating grid' (megajoule, DK, None)", -0.002474994258170368], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0016041021255046451], ["'eol MUD' (kilogram, GLO, None)", 4.808303505954188e-06], ["'scalpel' (unit, GLO, None)", 0.0004507693032491023], ["'surgery use' (unit, DK, None)", 0.0033181711629605122]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0057859882402645025], ["'SUD manufacturing' (unit, GLO, None)", 0.06718160031041252], ["'SUD raw materials' (unit, GLO, None)", 0.008941788081229496], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0011929833474165238], ["'mixed heating grid' (megajoule, DK, None)", -0.0004284671468543529], ["'transport' (ton kilometer, GLO, None)", 0.00010199918379811616], ["'eol SUD' (kilogram, GLO, None)", 0.0004314847279709642], ["'surgery use' (unit, DK, None)", 0.00018551378391384608], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338637180298667e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002847962434474949], ["'packgaging materials' (kilogram, GLO, None)", 4.317672863700497e-06], ["'MUD raw materials' (unit, GLO, None)", 0.00010783909133993896], ["'mechanical disinfection' (unit, DK, None)", 0.0014413924152082262], ["'H200 SU' (unit, GLO, None)", 0.0005335416293602986], ["'autoclave' (unit, DK, None)", 0.0007567583416717263], ["'transport' (ton kilometer, GLO, None)", 4.172193088105851e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.7729930055351695e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.936554113820045e-05], ["'eol MUD' (kilogram, GLO, None)", 1.4054603644804344e-05], ["'scalpel' (unit, GLO, None)", 0.0011101226208047532], ["'surgery use' (unit, DK, None)", 0.00018551378391384608]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 2.2681981286309486e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.869017634813851e-07], ["'SUD raw materials' (unit, GLO, None)", 8.265723535363978e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.006293885525272e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.48497285707812e-07], ["'transport' (ton kilometer, GLO, None)", 4.130999018467332e-09], ["'eol SUD' (kilogram, GLO, None)", 8.589611577441693e-08], ["'surgery use' (unit, DK, None)", 1.7526186523210535e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955346388309e-10]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.2015786929236846e-07], ["'packgaging materials' (kilogram, GLO, None)", 1.692595474241475e-11], ["'MUD raw materials' (unit, GLO, None)", 2.516541974161185e-09], ["'mechanical disinfection' (unit, DK, None)", 1.291569262742517e-07], ["'H200 SU' (unit, GLO, None)", -1.4640413983545734e-08], ["'autoclave' (unit, DK, None)", 5.773057826039949e-08], ["'transport' (ton kilometer, GLO, None)", 1.6897513205531925e-09], ["'mixed heating grid' (megajoule, DK, None)", -6.144803652598496e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 8.302025636459948e-09], ["'eol MUD' (kilogram, GLO, None)", 2.1287387506500013e-09], ["'scalpel' (unit, GLO, None)", 3.6851778735876714e-09], ["'surgery use' (unit, DK, None)", 1.7526186523210535e-08]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 9.901484252004811e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005053974244046525], ["'SUD raw materials' (unit, GLO, None)", 0.0007740388543867844], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014504428102580968], ["'mixed heating grid' (megajoule, DK, None)", -0.00012867970591025698], ["'transport' (ton kilometer, GLO, None)", 6.510637737708725e-06], ["'eol SUD' (kilogram, GLO, None)", 2.0135809857947688e-05], ["'surgery use' (unit, DK, None)", 1.849325568352731e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.487944255989649e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00023675363594618252], ["'packgaging materials' (kilogram, GLO, None)", 7.388775795936397e-08], ["'MUD raw materials' (unit, GLO, None)", 2.4082764430663088e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0001303217001859864], ["'H200 SU' (unit, GLO, None)", 5.836108836950194e-05], ["'autoclave' (unit, DK, None)", 5.7504729273906675e-05], ["'transport' (ton kilometer, GLO, None)", 2.663123052258301e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.324754072936232e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.001919001925828e-06], ["'eol MUD' (kilogram, GLO, None)", 6.186159094141276e-07], ["'scalpel' (unit, GLO, None)", 4.305807388823399e-05], ["'surgery use' (unit, DK, None)", 1.849325568352731e-05]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0001896800093350281], ["'SUD manufacturing' (unit, GLO, None)", 0.0035143480353896127], ["'SUD raw materials' (unit, GLO, None)", 0.00040644155778866227], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003542831369174555], ["'mixed heating grid' (megajoule, DK, None)", -0.00023951996097961917], ["'transport' (ton kilometer, GLO, None)", 1.440845522425093e-05], ["'eol SUD' (kilogram, GLO, None)", 9.597144313020937e-05], ["'surgery use' (unit, DK, None)", 3.418728796217898e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6969028042192276e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004059580919990757], ["'packgaging materials' (kilogram, GLO, None)", 1.4154474483599517e-07], ["'MUD raw materials' (unit, GLO, None)", 4.763020469188235e-06], ["'mechanical disinfection' (unit, DK, None)", 0.000237870448893585], ["'H200 SU' (unit, GLO, None)", 0.00010880936114248855], ["'autoclave' (unit, DK, None)", 0.0001019915009237066], ["'transport' (ton kilometer, GLO, None)", 5.893660621430644e-06], ["'mixed heating grid' (megajoule, DK, None)", -9.911313355543614e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4660203604638439e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9093506851202022e-06], ["'scalpel' (unit, GLO, None)", 3.349726599219498e-05], ["'surgery use' (unit, DK, None)", 3.418728796217898e-05]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.00020511493423180948], ["'SUD manufacturing' (unit, GLO, None)", 0.0036068485431254866], ["'SUD raw materials' (unit, GLO, None)", 0.00043535694220221113], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003622796258614018], ["'mixed heating grid' (megajoule, DK, None)", -0.0002468567383130796], ["'transport' (ton kilometer, GLO, None)", 1.6300400846570973e-05], ["'eol SUD' (kilogram, GLO, None)", 9.748421812842788e-05], ["'surgery use' (unit, DK, None)", 3.5030577037315725e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497882381659571e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004162494329180668], ["'packgaging materials' (kilogram, GLO, None)", 1.530627351278388e-07], ["'MUD raw materials' (unit, GLO, None)", 4.882886117475969e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00024386400724047666], ["'H200 SU' (unit, GLO, None)", 0.0001163230295585888], ["'autoclave' (unit, DK, None)", 0.00010458797498511099], ["'transport' (ton kilometer, GLO, None)", 6.667545485464387e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0214908508425107e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4991097581304922e-05], ["'eol MUD' (kilogram, GLO, None)", 2.957605748826087e-06], ["'scalpel' (unit, GLO, None)", 3.501499022151575e-05], ["'surgery use' (unit, DK, None)", 3.5030577037315725e-05]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0013545164926638247], ["'SUD manufacturing' (unit, GLO, None)", 0.010856714371328577], ["'SUD raw materials' (unit, GLO, None)", 0.004321421048325672], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031790866738956604], ["'mixed heating grid' (megajoule, DK, None)", -0.0010980661099917975], ["'transport' (ton kilometer, GLO, None)", 1.4729126952259412e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004205594365908916], ["'surgery use' (unit, DK, None)", 0.0002884118958757505], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521961984890272e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0034111113968639047], ["'packgaging materials' (kilogram, GLO, None)", 1.0107796388369456e-06], ["'MUD raw materials' (unit, GLO, None)", 7.773105903142865e-06], ["'mechanical disinfection' (unit, DK, None)", 0.002000101368840983], ["'H200 SU' (unit, GLO, None)", 0.0002575374113624009], ["'autoclave' (unit, DK, None)", 0.0008926026515878116], ["'transport' (ton kilometer, GLO, None)", 6.02482876585384e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.543787188641697e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00013155031402739876], ["'eol MUD' (kilogram, GLO, None)", 1.2165982383641287e-05], ["'scalpel' (unit, GLO, None)", 9.843189406486342e-05], ["'surgery use' (unit, DK, None)", 0.0002884118958757505]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 4.2807511897134694e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.739543484954777e-09], ["'SUD raw materials' (unit, GLO, None)", 1.1305087320005098e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0857763351870314e-09], ["'mixed heating grid' (megajoule, DK, None)", -8.001185521279514e-10], ["'transport' (ton kilometer, GLO, None)", 3.576920590471449e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2516833354909284e-09], ["'surgery use' (unit, DK, None)", 1.051772048679688e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3483076878625137e-12]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.2383911879099475e-09], ["'packgaging materials' (kilogram, GLO, None)", 3.194421156866114e-13], ["'MUD raw materials' (unit, GLO, None)", 6.4742161548908625e-12], ["'mechanical disinfection' (unit, DK, None)", 7.260637987539391e-10], ["'H200 SU' (unit, GLO, None)", 2.52347425726422e-10], ["'autoclave' (unit, DK, None)", 3.10142788303502e-10], ["'transport' (ton kilometer, GLO, None)", 1.4631100768224094e-11], ["'mixed heating grid' (megajoule, DK, None)", -3.310883009203049e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.4929324837294477e-11], ["'eol MUD' (kilogram, GLO, None)", 4.2344931585003354e-11], ["'scalpel' (unit, GLO, None)", 6.94855481265173e-11], ["'surgery use' (unit, DK, None)", 1.051772048679688e-10]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 1.567611279526599e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.97774494976339e-06], ["'SUD raw materials' (unit, GLO, None)", 8.151528079288333e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6989108934913715e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.7143881321579754e-07], ["'transport' (ton kilometer, GLO, None)", 1.5717589565989364e-08], ["'eol SUD' (kilogram, GLO, None)", 5.524078107643987e-07], ["'surgery use' (unit, DK, None)", 4.273809716537178e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.078775558234125e-09]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.332315678959107e-07], ["'packgaging materials' (kilogram, GLO, None)", 1.1697971723035158e-10], ["'MUD raw materials' (unit, GLO, None)", 7.302799999889893e-09], ["'mechanical disinfection' (unit, DK, None)", 3.005424470139837e-07], ["'H200 SU' (unit, GLO, None)", 1.4641791654581593e-07], ["'autoclave' (unit, DK, None)", 1.306831226564093e-07], ["'transport' (ton kilometer, GLO, None)", 6.429151303671178e-09], ["'mixed heating grid' (megajoule, DK, None)", -7.0941218933684844e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.53060592400233e-08], ["'eol MUD' (kilogram, GLO, None)", 1.655388856522363e-08], ["'scalpel' (unit, GLO, None)", 1.0195607426864611e-07], ["'surgery use' (unit, DK, None)", 4.273809716537178e-08]]</t>
-  </si>
-  <si>
-    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.016210081756718845], ["'SUD manufacturing' (unit, GLO, None)", 0.0657118779384806], ["'SUD raw materials' (unit, GLO, None)", 0.026242652175296297], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008643952987608118], ["'mixed heating grid' (megajoule, DK, None)", -0.005070399872780039], ["'transport' (ton kilometer, GLO, None)", 0.0012316580594210701], ["'eol SUD' (kilogram, GLO, None)", 0.0012210153878991692], ["'surgery use' (unit, DK, None)", 0.0008241898450883538], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6844763138544316e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009967868414503665], ["'packgaging materials' (kilogram, GLO, None)", 1.2096434906710404e-05], ["'MUD raw materials' (unit, GLO, None)", 9.178140202761554e-05], ["'mechanical disinfection' (unit, DK, None)", 0.005860582265678029], ["'H200 SU' (unit, GLO, None)", 0.01342685402824118], ["'autoclave' (unit, DK, None)", 0.0025318351880109385], ["'transport' (ton kilometer, GLO, None)", 0.0005037996433968878], ["'mixed heating grid' (megajoule, DK, None)", -0.0002098126676853776], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0003576859792138025], ["'eol MUD' (kilogram, GLO, None)", 4.020532957688969e-05], ["'scalpel' (unit, GLO, None)", 0.0009559316717021194], ["'surgery use' (unit, DK, None)", 0.0008241898450883538]]</t>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.000217933225903772], ["'SUD manufacturing' (unit, GLO, None)", 0.01449345170589394], ["'SUD raw materials' (unit, GLO, None)", 0.002301881251574761], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000426182412722209], ["'mixed heating grid' (megajoule, DK, None)", -0.0002959219899603225], ["'transport' (ton kilometer, GLO, None)", 1.2469164082826707e-05], ["'eol SUD' (kilogram, GLO, None)", 5.328004184559836e-05], ["'surgery use' (unit, DK, None)", 5.367420424950549e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.889632163782068e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006838744668207432], ["'packgaging materials' (kilogram, GLO, None)", 1.6262811753319617e-07], ["'MUD raw materials' (unit, GLO, None)", 5.044343527077364e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0003752089655609819], ["'H200 SU' (unit, GLO, None)", 0.0001294314612095637], ["'autoclave' (unit, DK, None)", 0.00016508799619386802], ["'transport' (ton kilometer, GLO, None)", 5.10040946051062e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.2245223985913876e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.7635389021293833e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6326346711935618e-06], ["'scalpel' (unit, GLO, None)", 6.249490286777009e-05], ["'surgery use' (unit, DK, None)", 5.367420424950549e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.07325435263714376], ["'SUD manufacturing' (unit, GLO, None)", 0.7599394500035327], ["'SUD raw materials' (unit, GLO, None)", 0.1652473924931615], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.17583137481328953], ["'mixed heating grid' (megajoule, DK, None)", -0.05444777513684988], ["'transport' (ton kilometer, GLO, None)", 0.009047771285838651], ["'eol SUD' (kilogram, GLO, None)", 0.4215931858003368], ["'surgery use' (unit, DK, None)", 0.01623028490170327], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568839246861072]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1877127791743969], ["'packgaging materials' (kilogram, GLO, None)", 5.466453048215729e-05], ["'MUD raw materials' (unit, GLO, None)", 0.0009051563089579962], ["'mechanical disinfection' (unit, DK, None)", 0.1121101105101208], ["'H200 SU' (unit, GLO, None)", 0.10030260991217625], ["'autoclave' (unit, DK, None)", 0.04769806851629699], ["'transport' (ton kilometer, GLO, None)", 0.0037009167540256144], ["'mixed heating grid' (megajoule, DK, None)", -0.0022530437909490755], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00727588610983453], ["'eol MUD' (kilogram, GLO, None)", 0.01443658611348089], ["'scalpel' (unit, GLO, None)", 0.01285170621261845], ["'surgery use' (unit, DK, None)", 0.01623028490170327]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0021169530731168936], ["'SUD manufacturing' (unit, GLO, None)", 1.345390637530452], ["'SUD raw materials' (unit, GLO, None)", 0.01684144159178661], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010902532387062867], ["'mixed heating grid' (megajoule, DK, None)", -0.003162673717613043], ["'transport' (ton kilometer, GLO, None)", 0.00022606768299272942], ["'eol SUD' (kilogram, GLO, None)", 0.03563855015267832], ["'surgery use' (unit, DK, None)", 0.003484677149589], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687907476332518e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04348093039905101], ["'packgaging materials' (kilogram, GLO, None)", 1.5797320108459711e-06], ["'MUD raw materials' (unit, GLO, None)", 0.000865023131354999], ["'mechanical disinfection' (unit, DK, None)", 0.023493123382302493], ["'H200 SU' (unit, GLO, None)", 0.00377094300254141], ["'autoclave' (unit, DK, None)", 0.009872559330501218], ["'transport' (ton kilometer, GLO, None)", 9.247113450370475e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001308711396261132], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00045114578692958217], ["'eol MUD' (kilogram, GLO, None)", 0.0007276189352314492], ["'scalpel' (unit, GLO, None)", 0.002792339710185499], ["'surgery use' (unit, DK, None)", 0.003484677149589]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.00281926086168892], ["'SUD manufacturing' (unit, GLO, None)", 1.727145795910309], ["'SUD raw materials' (unit, GLO, None)", 0.02314080529561657], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01421667121590312], ["'mixed heating grid' (megajoule, DK, None)", -0.0042575892881699835], ["'transport' (ton kilometer, GLO, None)", 0.00040164541879584854], ["'eol SUD' (kilogram, GLO, None)", 0.048965684124651875], ["'surgery use' (unit, DK, None)", 0.004390462149168234], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867433862162024e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05493462228344335], ["'packgaging materials' (kilogram, GLO, None)", 2.1038145279138456e-06], ["'MUD raw materials' (unit, GLO, None)", 0.001363932244702852], ["'mechanical disinfection' (unit, DK, None)", 0.029630371915618393], ["'H200 SU' (unit, GLO, None)", 0.005312861592348578], ["'autoclave' (unit, DK, None)", 0.01246231992994126], ["'transport' (ton kilometer, GLO, None)", 0.00016428976956189806], ["'mixed heating grid' (megajoule, DK, None)", -0.00017617864248837804], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005882845467011378], ["'eol MUD' (kilogram, GLO, None)", 0.001037055638702436], ["'scalpel' (unit, GLO, None)", 0.003720088332990505], ["'surgery use' (unit, DK, None)", 0.004390462149168234]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.19932393975679102], ["'SUD manufacturing' (unit, GLO, None)", 102.7754556715733], ["'SUD raw materials' (unit, GLO, None)", 4.338663284220511], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4900751265328471], ["'mixed heating grid' (megajoule, DK, None)", -0.4246544283985392], ["'transport' (ton kilometer, GLO, None)", 0.17452026800367856], ["'eol SUD' (kilogram, GLO, None)", 0.9620869911718408], ["'surgery use' (unit, DK, None)", 0.1764627295269747], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.002228912426076735]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.391785610777499], ["'packgaging materials' (kilogram, GLO, None)", 0.0001487413264660259], ["'MUD raw materials' (unit, GLO, None)", 0.01411658378970856], ["'mechanical disinfection' (unit, DK, None)", 1.1956288485687032], ["'H200 SU' (unit, GLO, None)", 0.23816360151981678], ["'autoclave' (unit, DK, None)", 0.506876224233929], ["'transport' (ton kilometer, GLO, None)", 0.07138608651423115], ["'mixed heating grid' (megajoule, DK, None)", -0.01757216012587492], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.02027926363939367], ["'eol MUD' (kilogram, GLO, None)", 0.034499710871781435], ["'scalpel' (unit, GLO, None)", 0.4425244279598313], ["'surgery use' (unit, DK, None)", 0.1764627295269747]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.04023032568882962], ["'SUD manufacturing' (unit, GLO, None)", 0.2078212058349955], ["'SUD raw materials' (unit, GLO, None)", 0.06836056390686601], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04629574773642991], ["'mixed heating grid' (megajoule, DK, None)", -0.015907111181628245], ["'transport' (ton kilometer, GLO, None)", 0.0028514052024111785], ["'eol SUD' (kilogram, GLO, None)", 0.0030884126465350326], ["'surgery use' (unit, DK, None)", 0.004169948934157744], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301598925428905]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04829332448294311], ["'packgaging materials' (kilogram, GLO, None)", 3.0021040194259365e-05], ["'MUD raw materials' (unit, GLO, None)", 0.0002325060894508973], ["'mechanical disinfection' (unit, DK, None)", 0.028876569173547105], ["'H200 SU' (unit, GLO, None)", 0.03405038211807322], ["'autoclave' (unit, DK, None)", 0.012213540766465258], ["'transport' (ton kilometer, GLO, None)", 0.0011663439484413504], ["'mixed heating grid' (megajoule, DK, None)", -0.0006582347577954247], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00191571378121554], ["'eol MUD' (kilogram, GLO, None)", 0.00010128412056811891], ["'scalpel' (unit, GLO, None)", 0.003063037529365741], ["'surgery use' (unit, DK, None)", 0.004169948934157744]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 2.04638332130397e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001924726265283953], ["'SUD raw materials' (unit, GLO, None)", 4.928300453400991e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014612527916688667], ["'mixed heating grid' (megajoule, DK, None)", -2.230072092580476e-05], ["'transport' (ton kilometer, GLO, None)", 6.466690347690473e-07], ["'eol SUD' (kilogram, GLO, None)", 7.295930426906038e-06], ["'surgery use' (unit, DK, None)", 1.420379347262742e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300989373285446e-07]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001877230838744959], ["'packgaging materials' (kilogram, GLO, None)", 1.5270708076516124e-08], ["'MUD raw materials' (unit, GLO, None)", 1.346265868406846e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00010690829466873588], ["'H200 SU' (unit, GLO, None)", 5.4881571093760974e-06], ["'autoclave' (unit, DK, None)", 4.824079903511854e-05], ["'transport' (ton kilometer, GLO, None)", 2.645146732248e-07], ["'mixed heating grid' (megajoule, DK, None)", -9.22801724942612e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.046650605530535e-06], ["'eol MUD' (kilogram, GLO, None)", 2.1396645994945116e-07], ["'scalpel' (unit, GLO, None)", 6.495437424026572e-06], ["'surgery use' (unit, DK, None)", 1.420379347262742e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 5.814189742381448e-06], ["'SUD manufacturing' (unit, GLO, None)", 6.042957304204081e-05], ["'SUD raw materials' (unit, GLO, None)", 9.421561054890103e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2654931856773234e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.9920427315765202e-05], ["'transport' (ton kilometer, GLO, None)", 2.5460124168422725e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1578754418984613e-06], ["'surgery use' (unit, DK, None)", 1.423529280588476e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762573320509e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.921492323622215e-05], ["'packgaging materials' (kilogram, GLO, None)", 4.33871764556828e-09], ["'MUD raw materials' (unit, GLO, None)", 5.91608452088953e-08], ["'mechanical disinfection' (unit, DK, None)", 4.770289316735944e-05], ["'H200 SU' (unit, GLO, None)", -2.6959784385350377e-06], ["'autoclave' (unit, DK, None)", 3.302809747707872e-05], ["'transport' (ton kilometer, GLO, None)", 1.041425530306762e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.2381044554509978e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.23659915731033e-07], ["'eol MUD' (kilogram, GLO, None)", 5.731670313235649e-08], ["'scalpel' (unit, GLO, None)", 7.484963222329542e-07], ["'surgery use' (unit, DK, None)", 1.423529280588476e-06]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0031864898591224804], ["'SUD manufacturing' (unit, GLO, None)", 0.1684748403603112], ["'SUD raw materials' (unit, GLO, None)", 0.02807747992745142], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014567015894615227], ["'mixed heating grid' (megajoule, DK, None)", -0.0030498522391853963], ["'transport' (ton kilometer, GLO, None)", 0.00046867191735035615], ["'eol SUD' (kilogram, GLO, None)", 0.005098283774078206], ["'surgery use' (unit, DK, None)", 0.001498456928941167], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.779008845486375e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01838322658189697], ["'packgaging materials' (kilogram, GLO, None)", 2.3778514963868996e-06], ["'MUD raw materials' (unit, GLO, None)", 0.0003692023518769145], ["'mechanical disinfection' (unit, DK, None)", 0.010598429846493222], ["'H200 SU' (unit, GLO, None)", 0.001722292185687515], ["'autoclave' (unit, DK, None)", 0.004600309688892087], ["'transport' (ton kilometer, GLO, None)", 0.00019170640992860445], ["'mixed heating grid' (megajoule, DK, None)", -0.00012620259750812556], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006027817772676544], ["'eol MUD' (kilogram, GLO, None)", 0.00014187219678798017], ["'scalpel' (unit, GLO, None)", 0.01600976023331309], ["'surgery use' (unit, DK, None)", 0.001498456928941167]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.05590355841054033], ["'SUD manufacturing' (unit, GLO, None)", 19.78402519897064], ["'SUD raw materials' (unit, GLO, None)", 0.3179891360626064], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.25998014240708534], ["'mixed heating grid' (megajoule, DK, None)", -0.11896070268105209], ["'transport' (ton kilometer, GLO, None)", 0.007121715866701352], ["'eol SUD' (kilogram, GLO, None)", 0.5721151086031498], ["'surgery use' (unit, DK, None)", 0.04545673748860148], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017273671497718991]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.617409206484011], ["'packgaging materials' (kilogram, GLO, None)", 4.1716862722564305e-05], ["'MUD raw materials' (unit, GLO, None)", 0.01622152654449242], ["'mechanical disinfection' (unit, DK, None)", 0.32654088057985065], ["'H200 SU' (unit, GLO, None)", 0.04513073219232335], ["'autoclave' (unit, DK, None)", 0.14387348304814523], ["'transport' (ton kilometer, GLO, None)", 0.0029130795569222907], ["'mixed heating grid' (megajoule, DK, None)", -0.0049225826375610135], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.010757954369526701], ["'eol MUD' (kilogram, GLO, None)", 0.009933703808963548], ["'scalpel' (unit, GLO, None)", 0.04190537951620722], ["'surgery use' (unit, DK, None)", 0.04545673748860148]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.005306431092350257], ["'SUD manufacturing' (unit, GLO, None)", 0.1003765748615008], ["'SUD raw materials' (unit, GLO, None)", 0.009525746373171535], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05325822335540196], ["'mixed heating grid' (megajoule, DK, None)", -0.002230216560661448], ["'transport' (ton kilometer, GLO, None)", 0.00014709200785456225], ["'eol SUD' (kilogram, GLO, None)", 0.00041893231104105555], ["'surgery use' (unit, DK, None)", 0.004535809516283955], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.39375673538385e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05135719812310295], ["'packgaging materials' (kilogram, GLO, None)", 3.9598133592974446e-06], ["'MUD raw materials' (unit, GLO, None)", 5.461090725600252e-05], ["'mechanical disinfection' (unit, DK, None)", 0.03115435060117078], ["'H200 SU' (unit, GLO, None)", 0.00035269888263331624], ["'autoclave' (unit, DK, None)", 0.012897365920600447], ["'transport' (ton kilometer, GLO, None)", 6.0166781304945166e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.228615056980249e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00220382038164412], ["'eol MUD' (kilogram, GLO, None)", 1.367157506709166e-05], ["'scalpel' (unit, GLO, None)", 0.0008099262796407999], ["'surgery use' (unit, DK, None)", 0.004535809516283955]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.014939211294443666], ["'SUD manufacturing' (unit, GLO, None)", 0.05611561609202762], ["'SUD raw materials' (unit, GLO, None)", 0.003024483458977392], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03876524148545477], ["'mixed heating grid' (megajoule, DK, None)", -0.059811500946055376], ["'transport' (ton kilometer, GLO, None)", 0.0003449109798527071], ["'eol SUD' (kilogram, GLO, None)", 0.0001804135440654717], ["'surgery use' (unit, DK, None)", 0.003318171162960512], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5569939177099296e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03664493819986465], ["'packgaging materials' (kilogram, GLO, None)", 1.1148074370811146e-05], ["'MUD raw materials' (unit, GLO, None)", 4.90486203286378e-05], ["'mechanical disinfection' (unit, DK, None)", 0.022147095147254974], ["'H200 SU' (unit, GLO, None)", -0.009082945477312594], ["'autoclave' (unit, DK, None)", 0.009222094410922584], ["'transport' (ton kilometer, GLO, None)", 0.00014108301189953823], ["'mixed heating grid' (megajoule, DK, None)", -0.0024749942581703687], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0016041021255046451], ["'eol MUD' (kilogram, GLO, None)", 4.808303505954188e-06], ["'scalpel' (unit, GLO, None)", 0.0004507693032491023], ["'surgery use' (unit, DK, None)", 0.003318171162960512]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.005785988240264502], ["'SUD manufacturing' (unit, GLO, None)", 0.06718160031041252], ["'SUD raw materials' (unit, GLO, None)", 0.008941788081229496], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0011929833474165234], ["'mixed heating grid' (megajoule, DK, None)", -0.00042846714685435304], ["'transport' (ton kilometer, GLO, None)", 0.00010199918379811616], ["'eol SUD' (kilogram, GLO, None)", 0.00043148472797096415], ["'surgery use' (unit, DK, None)", 0.0001855137839138461], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338637180298667e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002847962434474949], ["'packgaging materials' (kilogram, GLO, None)", 4.317672863700496e-06], ["'MUD raw materials' (unit, GLO, None)", 0.000107839091339939], ["'mechanical disinfection' (unit, DK, None)", 0.0014413924152082262], ["'H200 SU' (unit, GLO, None)", 0.0005335416293602985], ["'autoclave' (unit, DK, None)", 0.0007567583416717263], ["'transport' (ton kilometer, GLO, None)", 4.172193088105851e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.7729930055351702e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.936554113820043e-05], ["'eol MUD' (kilogram, GLO, None)", 1.4054603644804347e-05], ["'scalpel' (unit, GLO, None)", 0.001110122620804753], ["'surgery use' (unit, DK, None)", 0.0001855137839138461]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 2.2681981286309486e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.869017634813851e-07], ["'SUD raw materials' (unit, GLO, None)", 8.265723535363978e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0062938855252718e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.48497285707812e-07], ["'transport' (ton kilometer, GLO, None)", 4.130999018467332e-09], ["'eol SUD' (kilogram, GLO, None)", 8.589611577441692e-08], ["'surgery use' (unit, DK, None)", 1.752618652321053e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955346388309e-10]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.201578692923685e-07], ["'packgaging materials' (kilogram, GLO, None)", 1.692595474241475e-11], ["'MUD raw materials' (unit, GLO, None)", 2.516541974161185e-09], ["'mechanical disinfection' (unit, DK, None)", 1.291569262742517e-07], ["'H200 SU' (unit, GLO, None)", -1.4640413983545732e-08], ["'autoclave' (unit, DK, None)", 5.773057826039949e-08], ["'transport' (ton kilometer, GLO, None)", 1.6897513205531925e-09], ["'mixed heating grid' (megajoule, DK, None)", -6.144803652598496e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 8.302025636459946e-09], ["'eol MUD' (kilogram, GLO, None)", 2.1287387506500013e-09], ["'scalpel' (unit, GLO, None)", 3.685177873587671e-09], ["'surgery use' (unit, DK, None)", 1.752618652321053e-08]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 9.901484252004811e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005053974244046525], ["'SUD raw materials' (unit, GLO, None)", 0.0007740388543867844], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001450442810258097], ["'mixed heating grid' (megajoule, DK, None)", -0.00012867970591025698], ["'transport' (ton kilometer, GLO, None)", 6.510637737708725e-06], ["'eol SUD' (kilogram, GLO, None)", 2.013580985794768e-05], ["'surgery use' (unit, DK, None)", 1.849325568352731e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4879442559896493e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002367536359461825], ["'packgaging materials' (kilogram, GLO, None)", 7.388775795936397e-08], ["'MUD raw materials' (unit, GLO, None)", 2.408276443066309e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0001303217001859864], ["'H200 SU' (unit, GLO, None)", 5.836108836950195e-05], ["'autoclave' (unit, DK, None)", 5.750472927390667e-05], ["'transport' (ton kilometer, GLO, None)", 2.663123052258301e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.324754072936232e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.001919001925829e-06], ["'eol MUD' (kilogram, GLO, None)", 6.186159094141276e-07], ["'scalpel' (unit, GLO, None)", 4.305807388823399e-05], ["'surgery use' (unit, DK, None)", 1.849325568352731e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0001896800093350281], ["'SUD manufacturing' (unit, GLO, None)", 0.003514348035389613], ["'SUD raw materials' (unit, GLO, None)", 0.0004064415577886623], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003542831369174555], ["'mixed heating grid' (megajoule, DK, None)", -0.00023951996097961917], ["'transport' (ton kilometer, GLO, None)", 1.4408455224250929e-05], ["'eol SUD' (kilogram, GLO, None)", 9.597144313020937e-05], ["'surgery use' (unit, DK, None)", 3.418728796217898e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6969028042192272e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004059580919990757], ["'packgaging materials' (kilogram, GLO, None)", 1.4154474483599517e-07], ["'MUD raw materials' (unit, GLO, None)", 4.763020469188235e-06], ["'mechanical disinfection' (unit, DK, None)", 0.000237870448893585], ["'H200 SU' (unit, GLO, None)", 0.00010880936114248855], ["'autoclave' (unit, DK, None)", 0.0001019915009237066], ["'transport' (ton kilometer, GLO, None)", 5.893660621430642e-06], ["'mixed heating grid' (megajoule, DK, None)", -9.911313355543614e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4660203604638439e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9093506851202026e-06], ["'scalpel' (unit, GLO, None)", 3.349726599219498e-05], ["'surgery use' (unit, DK, None)", 3.418728796217898e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0002051149342318095], ["'SUD manufacturing' (unit, GLO, None)", 0.003606848543125487], ["'SUD raw materials' (unit, GLO, None)", 0.0004353569422022111], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003622796258614018], ["'mixed heating grid' (megajoule, DK, None)", -0.0002468567383130796], ["'transport' (ton kilometer, GLO, None)", 1.630040084657097e-05], ["'eol SUD' (kilogram, GLO, None)", 9.748421812842788e-05], ["'surgery use' (unit, DK, None)", 3.503057703731572e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497882381659565e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004162494329180668], ["'packgaging materials' (kilogram, GLO, None)", 1.5306273512783884e-07], ["'MUD raw materials' (unit, GLO, None)", 4.882886117475969e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00024386400724047666], ["'H200 SU' (unit, GLO, None)", 0.0001163230295585888], ["'autoclave' (unit, DK, None)", 0.00010458797498511099], ["'transport' (ton kilometer, GLO, None)", 6.6675454854643865e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.0214908508425107e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4991097581304922e-05], ["'eol MUD' (kilogram, GLO, None)", 2.957605748826087e-06], ["'scalpel' (unit, GLO, None)", 3.501499022151575e-05], ["'surgery use' (unit, DK, None)", 3.503057703731572e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0013545164926638245], ["'SUD manufacturing' (unit, GLO, None)", 0.01085671437132858], ["'SUD raw materials' (unit, GLO, None)", 0.004321421048325672], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031790866738956604], ["'mixed heating grid' (megajoule, DK, None)", -0.0010980661099917973], ["'transport' (ton kilometer, GLO, None)", 1.4729126952259415e-05], ["'eol SUD' (kilogram, GLO, None)", 0.0004205594365908916], ["'surgery use' (unit, DK, None)", 0.0002884118958757505], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521961984890272e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003411111396863905], ["'packgaging materials' (kilogram, GLO, None)", 1.0107796388369456e-06], ["'MUD raw materials' (unit, GLO, None)", 7.773105903142865e-06], ["'mechanical disinfection' (unit, DK, None)", 0.002000101368840983], ["'H200 SU' (unit, GLO, None)", 0.000257537411362401], ["'autoclave' (unit, DK, None)", 0.0008926026515878115], ["'transport' (ton kilometer, GLO, None)", 6.024828765853841e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.543787188641696e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00013155031402739876], ["'eol MUD' (kilogram, GLO, None)", 1.2165982383641287e-05], ["'scalpel' (unit, GLO, None)", 9.843189406486342e-05], ["'surgery use' (unit, DK, None)", 0.0002884118958757505]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 4.28075118971347e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.739543484954777e-09], ["'SUD raw materials' (unit, GLO, None)", 1.13050873200051e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0857763351870314e-09], ["'mixed heating grid' (megajoule, DK, None)", -8.001185521279513e-10], ["'transport' (ton kilometer, GLO, None)", 3.576920590471449e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2516833354909284e-09], ["'surgery use' (unit, DK, None)", 1.051772048679688e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.348307687862514e-12]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.238391187909947e-09], ["'packgaging materials' (kilogram, GLO, None)", 3.1944211568661143e-13], ["'MUD raw materials' (unit, GLO, None)", 6.474216154890863e-12], ["'mechanical disinfection' (unit, DK, None)", 7.260637987539391e-10], ["'H200 SU' (unit, GLO, None)", 2.52347425726422e-10], ["'autoclave' (unit, DK, None)", 3.1014278830350204e-10], ["'transport' (ton kilometer, GLO, None)", 1.4631100768224094e-11], ["'mixed heating grid' (megajoule, DK, None)", -3.3108830092030486e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.4929324837294477e-11], ["'eol MUD' (kilogram, GLO, None)", 4.2344931585003354e-11], ["'scalpel' (unit, GLO, None)", 6.94855481265173e-11], ["'surgery use' (unit, DK, None)", 1.051772048679688e-10]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 1.5676112795265994e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.97774494976339e-06], ["'SUD raw materials' (unit, GLO, None)", 8.151528079288333e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6989108934913715e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.714388132157976e-07], ["'transport' (ton kilometer, GLO, None)", 1.5717589565989364e-08], ["'eol SUD' (kilogram, GLO, None)", 5.524078107643987e-07], ["'surgery use' (unit, DK, None)", 4.273809716537178e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0787755582341255e-09]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.332315678959107e-07], ["'packgaging materials' (kilogram, GLO, None)", 1.169797172303516e-10], ["'MUD raw materials' (unit, GLO, None)", 7.302799999889893e-09], ["'mechanical disinfection' (unit, DK, None)", 3.005424470139837e-07], ["'H200 SU' (unit, GLO, None)", 1.4641791654581593e-07], ["'autoclave' (unit, DK, None)", 1.306831226564093e-07], ["'transport' (ton kilometer, GLO, None)", 6.429151303671178e-09], ["'mixed heating grid' (megajoule, DK, None)", -7.094121893368485e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.53060592400233e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6553888565223628e-08], ["'scalpel' (unit, GLO, None)", 1.019560742686461e-07], ["'surgery use' (unit, DK, None)", 4.273809716537178e-08]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.016210081756718845], ["'SUD manufacturing' (unit, GLO, None)", 0.0657118779384806], ["'SUD raw materials' (unit, GLO, None)", 0.0262426521752963], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008643952987608118], ["'mixed heating grid' (megajoule, DK, None)", -0.005070399872780037], ["'transport' (ton kilometer, GLO, None)", 0.00123165805942107], ["'eol SUD' (kilogram, GLO, None)", 0.0012210153878991692], ["'surgery use' (unit, DK, None)", 0.0008241898450883538], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6844763138544316e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009967868414503665], ["'packgaging materials' (kilogram, GLO, None)", 1.2096434906710404e-05], ["'MUD raw materials' (unit, GLO, None)", 9.178140202761554e-05], ["'mechanical disinfection' (unit, DK, None)", 0.005860582265678028], ["'H200 SU' (unit, GLO, None)", 0.01342685402824118], ["'autoclave' (unit, DK, None)", 0.0025318351880109376], ["'transport' (ton kilometer, GLO, None)", 0.0005037996433968877], ["'mixed heating grid' (megajoule, DK, None)", -0.00020981266768537753], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0003576859792138025], ["'eol MUD' (kilogram, GLO, None)", 4.020532957688969e-05], ["'scalpel' (unit, GLO, None)", 0.0009559316717021194], ["'surgery use' (unit, DK, None)", 0.0008241898450883538]]</t>
   </si>
 </sst>
 </file>
